--- a/data/trans_orig/Q4503_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q4503_R-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>58564</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>44362</v>
+        <v>45462</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>74892</v>
+        <v>76121</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1185352965465142</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0897900742974367</v>
+        <v>0.09201595130208705</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1515831541241535</v>
+        <v>0.1540705466071279</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -767,16 +767,16 @@
         <v>23384</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45171</v>
+        <v>45710</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07121317194909001</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05012169824698932</v>
+        <v>0.05012057287628354</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09681983904148445</v>
+        <v>0.09797302076600339</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>89</v>
@@ -785,19 +785,19 @@
         <v>91789</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>74967</v>
+        <v>74309</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>109821</v>
+        <v>111234</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09555188625964819</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07804101171792241</v>
+        <v>0.07735593115868641</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1143239889761897</v>
+        <v>0.115794433626469</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>94961</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>77614</v>
+        <v>79107</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>113588</v>
+        <v>112964</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1922033204303856</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1570935784140281</v>
+        <v>0.160114136367111</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2299052592800724</v>
+        <v>0.2286433998724313</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>49</v>
@@ -835,19 +835,19 @@
         <v>47796</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>36009</v>
+        <v>35658</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>60602</v>
+        <v>61781</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1024447474443742</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07718206819290414</v>
+        <v>0.07642825415792581</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.129892349790086</v>
+        <v>0.1324201453673607</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>147</v>
@@ -856,19 +856,19 @@
         <v>142757</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>121658</v>
+        <v>124021</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>164850</v>
+        <v>168090</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1486093751616351</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.126645801322942</v>
+        <v>0.1291053625046675</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1716083829554087</v>
+        <v>0.1749810864258154</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>184251</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>164510</v>
+        <v>161499</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>208178</v>
+        <v>203514</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3729294415961451</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3329739023438683</v>
+        <v>0.3268789443470514</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4213585325519711</v>
+        <v>0.4119179536395624</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>127</v>
@@ -906,19 +906,19 @@
         <v>122936</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>104575</v>
+        <v>107060</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>140892</v>
+        <v>141904</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.263498362608046</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2241433246105692</v>
+        <v>0.2294705388180979</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3019846170612604</v>
+        <v>0.3041546540315851</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>314</v>
@@ -927,19 +927,19 @@
         <v>307187</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>276884</v>
+        <v>279122</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>333449</v>
+        <v>337080</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3197809532745785</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2882357030775172</v>
+        <v>0.2905651271168108</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3471202766731246</v>
+        <v>0.3508997474878704</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>56775</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>44251</v>
+        <v>44931</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>73830</v>
+        <v>72485</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1149148988223423</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08956499019889283</v>
+        <v>0.0909425523882144</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1494331965990728</v>
+        <v>0.1467122120300793</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>90</v>
@@ -977,19 +977,19 @@
         <v>87720</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>72462</v>
+        <v>70926</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>106620</v>
+        <v>105284</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.188018252243331</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1553135969619263</v>
+        <v>0.1520221389799552</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2285271010585591</v>
+        <v>0.2256636259385953</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>148</v>
@@ -998,19 +998,19 @@
         <v>144496</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>125837</v>
+        <v>122858</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>168728</v>
+        <v>168361</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.150419736766829</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.130996383259168</v>
+        <v>0.1278954053435793</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1756458622611814</v>
+        <v>0.1752635510304534</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>99513</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>83212</v>
+        <v>82062</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>118026</v>
+        <v>118681</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2014170426046128</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1684242101325538</v>
+        <v>0.1660964547919234</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2388877635812801</v>
+        <v>0.2402146518665134</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>188</v>
@@ -1048,19 +1048,19 @@
         <v>174876</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>157304</v>
+        <v>155425</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>196701</v>
+        <v>195727</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3748254657551588</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3371632523131695</v>
+        <v>0.3331355691009654</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.421605340501977</v>
+        <v>0.4195190093736815</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>289</v>
@@ -1069,19 +1069,19 @@
         <v>274388</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>248024</v>
+        <v>247493</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>304368</v>
+        <v>301138</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2856380485373093</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2581926231429065</v>
+        <v>0.2576399287386053</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3168468548336419</v>
+        <v>0.3134844406307096</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>74802</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>57116</v>
+        <v>57951</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>94170</v>
+        <v>92946</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1017039561751013</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07765663083016541</v>
+        <v>0.0787926105536669</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.128037031018694</v>
+        <v>0.1263734444977095</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>57</v>
@@ -1194,19 +1194,19 @@
         <v>61971</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>48144</v>
+        <v>47693</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>79704</v>
+        <v>79764</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09907523002785119</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0769696914636238</v>
+        <v>0.07624835117924934</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1274258098673046</v>
+        <v>0.1275212905638895</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>126</v>
@@ -1215,19 +1215,19 @@
         <v>136773</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>115626</v>
+        <v>114371</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>162025</v>
+        <v>160231</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1004958201096332</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08495759117852469</v>
+        <v>0.08403551289843064</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1190499481344557</v>
+        <v>0.1177318295046308</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>120747</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>102357</v>
+        <v>100755</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>141843</v>
+        <v>141899</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1641728546777004</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1391688932849091</v>
+        <v>0.136990284157262</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1928547898424497</v>
+        <v>0.192931625863073</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>67</v>
@@ -1265,19 +1265,19 @@
         <v>71565</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>56744</v>
+        <v>57649</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>89373</v>
+        <v>88858</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1144142736698607</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09071836512521392</v>
+        <v>0.0921651454862059</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1428833363214197</v>
+        <v>0.1420598560494081</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>182</v>
@@ -1286,19 +1286,19 @@
         <v>192313</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>168384</v>
+        <v>166633</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>218469</v>
+        <v>218750</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1413043119255498</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1237222752197775</v>
+        <v>0.1224358313381191</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1605230661362348</v>
+        <v>0.1607296450319386</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>263857</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>237499</v>
+        <v>237342</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>289931</v>
+        <v>292572</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3587502533602813</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3229132545940664</v>
+        <v>0.3227002009022582</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3942015222326529</v>
+        <v>0.3977928263456956</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>175</v>
@@ -1336,19 +1336,19 @@
         <v>186296</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>162479</v>
+        <v>164366</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>209142</v>
+        <v>210519</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2978383898616346</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2597614281651425</v>
+        <v>0.2627776399498087</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3343631136644939</v>
+        <v>0.3365642055609531</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>425</v>
@@ -1357,19 +1357,19 @@
         <v>450153</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>413833</v>
+        <v>415058</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>485531</v>
+        <v>484303</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3307557742911837</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3040696830301848</v>
+        <v>0.3049693692770622</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3567507469399688</v>
+        <v>0.3558480221373552</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>104599</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>85791</v>
+        <v>86245</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>123870</v>
+        <v>124882</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1422168890435071</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1166451701886289</v>
+        <v>0.1172616094686434</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1684181889814888</v>
+        <v>0.1697939297525589</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>92</v>
@@ -1407,19 +1407,19 @@
         <v>97658</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>81331</v>
+        <v>80147</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>116909</v>
+        <v>117109</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1561298124456892</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1300262490601254</v>
+        <v>0.1281333688756169</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1869069165902325</v>
+        <v>0.1872270200740387</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>195</v>
@@ -1428,19 +1428,19 @@
         <v>202257</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>176055</v>
+        <v>177440</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>228883</v>
+        <v>231026</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1486111285331756</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1293586027302276</v>
+        <v>0.1303761501454276</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1681752379717515</v>
+        <v>0.1697495453892436</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>171484</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>148095</v>
+        <v>147338</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>197278</v>
+        <v>194429</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.23315604674341</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2013559094593732</v>
+        <v>0.2003262694559996</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2682266093387669</v>
+        <v>0.2643530011954523</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>200</v>
@@ -1478,19 +1478,19 @@
         <v>208003</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>184121</v>
+        <v>185695</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>232113</v>
+        <v>231999</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3325422939949643</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2943610464870597</v>
+        <v>0.296877693212103</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3710872204072664</v>
+        <v>0.3709046898999644</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>366</v>
@@ -1499,19 +1499,19 @@
         <v>379487</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>344645</v>
+        <v>348057</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>412039</v>
+        <v>412987</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2788329651404577</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2532322311444188</v>
+        <v>0.2557399069551064</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3027514389320538</v>
+        <v>0.303447484598425</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>105434</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>88425</v>
+        <v>88302</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>126113</v>
+        <v>127325</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1653475767717356</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1386735572776471</v>
+        <v>0.1384803203382736</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1977773317303904</v>
+        <v>0.1996794552236133</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>71</v>
@@ -1624,19 +1624,19 @@
         <v>75992</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>59531</v>
+        <v>58858</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>94620</v>
+        <v>93040</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1101740074270122</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08630921630430695</v>
+        <v>0.08533243888863971</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1371819698742309</v>
+        <v>0.1348908930357435</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>171</v>
@@ -1645,19 +1645,19 @@
         <v>181426</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>157314</v>
+        <v>156899</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>208382</v>
+        <v>210015</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1366781222095147</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1185137461992941</v>
+        <v>0.1182008073916092</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1569855751630151</v>
+        <v>0.1582162731423724</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>142777</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>118977</v>
+        <v>123772</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>166222</v>
+        <v>165016</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2239114740188476</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1865862761188199</v>
+        <v>0.1941061617637004</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2606795449733471</v>
+        <v>0.2587888779693362</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>82</v>
@@ -1695,19 +1695,19 @@
         <v>86276</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>70053</v>
+        <v>67911</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>104752</v>
+        <v>105616</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1250844890837662</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1015637987694484</v>
+        <v>0.09845856229804725</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.151870622022367</v>
+        <v>0.1531239709585745</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>217</v>
@@ -1716,19 +1716,19 @@
         <v>229053</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>204483</v>
+        <v>202470</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>261420</v>
+        <v>259579</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1725587015270935</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1540484374033063</v>
+        <v>0.1525318902547664</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1969425012661043</v>
+        <v>0.1955549866441046</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>189235</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>166986</v>
+        <v>169934</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>212695</v>
+        <v>214493</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2967698818721347</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2618782116653167</v>
+        <v>0.2665005791945423</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3335609761212993</v>
+        <v>0.3363806394376372</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>222</v>
@@ -1766,19 +1766,19 @@
         <v>229809</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>206214</v>
+        <v>202457</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>257257</v>
+        <v>255043</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3331804099359494</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.298972435138996</v>
+        <v>0.2935245129163415</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3729742629230471</v>
+        <v>0.369765034384227</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>407</v>
@@ -1787,19 +1787,19 @@
         <v>419045</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>385380</v>
+        <v>389102</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>452418</v>
+        <v>455931</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3156896289957968</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2903279998237613</v>
+        <v>0.2931325634548965</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3408320913410794</v>
+        <v>0.3434783672897495</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>68926</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>52269</v>
+        <v>55033</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>85839</v>
+        <v>85794</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1080935521691563</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08197193016650586</v>
+        <v>0.08630552284943156</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1346187060226174</v>
+        <v>0.1345470112218403</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>75</v>
@@ -1837,19 +1837,19 @@
         <v>78223</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>61268</v>
+        <v>63221</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>95821</v>
+        <v>95462</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1134092532547392</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08882710681809597</v>
+        <v>0.09165886736421117</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1389229237368183</v>
+        <v>0.1384014835895964</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>142</v>
@@ -1858,19 +1858,19 @@
         <v>147149</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>126952</v>
+        <v>126649</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>171633</v>
+        <v>172127</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1108557126120902</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09563974541779839</v>
+        <v>0.09541175707048483</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1293004246229894</v>
+        <v>0.1296732237651249</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>131278</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>110613</v>
+        <v>112478</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>151989</v>
+        <v>152298</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2058775151681258</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1734705423415037</v>
+        <v>0.1763948362752244</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2383582047605821</v>
+        <v>0.238842802265526</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>208</v>
@@ -1908,19 +1908,19 @@
         <v>219443</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>197150</v>
+        <v>195963</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>243999</v>
+        <v>246517</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3181518402985329</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2858306649709881</v>
+        <v>0.2841101936812561</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3537530519341341</v>
+        <v>0.3574031698132404</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>333</v>
@@ -1929,19 +1929,19 @@
         <v>350721</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>319465</v>
+        <v>318784</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>386974</v>
+        <v>383283</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2642178346555047</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.240670826356423</v>
+        <v>0.2401580712301982</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2915294365880043</v>
+        <v>0.2887481898759179</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>115566</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>97398</v>
+        <v>97518</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>136178</v>
+        <v>136550</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2226070992167363</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1876109216076317</v>
+        <v>0.1878435806523422</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2623101698073679</v>
+        <v>0.2630280729269557</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>62</v>
@@ -2054,19 +2054,19 @@
         <v>63784</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>49865</v>
+        <v>50261</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>80180</v>
+        <v>79630</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1239481009760941</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09690076739587199</v>
+        <v>0.09766926334403356</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1558108813617685</v>
+        <v>0.1547422838852921</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>171</v>
@@ -2075,19 +2075,19 @@
         <v>179349</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>156774</v>
+        <v>155869</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>206488</v>
+        <v>203064</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1734946227585527</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1516565158644334</v>
+        <v>0.150780513716968</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.199747200506066</v>
+        <v>0.1964352811683095</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>108223</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>89631</v>
+        <v>90263</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>129082</v>
+        <v>127257</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2084626278049419</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1726511515326495</v>
+        <v>0.1738684149082226</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.248641953394107</v>
+        <v>0.2451279738833378</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>64</v>
@@ -2125,19 +2125,19 @@
         <v>69648</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>54087</v>
+        <v>54132</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>86438</v>
+        <v>87333</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.135343848490396</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1051057931343458</v>
+        <v>0.1051929786114981</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1679707644048888</v>
+        <v>0.1697099581472446</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>166</v>
@@ -2146,19 +2146,19 @@
         <v>177871</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>154187</v>
+        <v>154756</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>201783</v>
+        <v>203789</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1720640793524457</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.149153740173625</v>
+        <v>0.1497042454211009</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1951960759989673</v>
+        <v>0.1971365790274251</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>136120</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>116205</v>
+        <v>117008</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>156622</v>
+        <v>157674</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2621990527584561</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2238387598592521</v>
+        <v>0.2253856397513039</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3016915148119703</v>
+        <v>0.3037182628056446</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>133</v>
@@ -2196,19 +2196,19 @@
         <v>136816</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>118241</v>
+        <v>117680</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>156980</v>
+        <v>156745</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2658686394305349</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2297738609110619</v>
+        <v>0.2286822772841521</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3050533157121808</v>
+        <v>0.3045960552948407</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>261</v>
@@ -2217,19 +2217,19 @@
         <v>272936</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>245762</v>
+        <v>241359</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>302963</v>
+        <v>299744</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2640257740130562</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2377388564881925</v>
+        <v>0.2334803299499598</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2930733449515077</v>
+        <v>0.2899588910504801</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>39030</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>27840</v>
+        <v>28142</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>53544</v>
+        <v>52559</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07518056437678652</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05362701157732644</v>
+        <v>0.0542088786730114</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1031390585014336</v>
+        <v>0.1012419759702114</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>61</v>
@@ -2267,19 +2267,19 @@
         <v>62376</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>48873</v>
+        <v>49737</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>77269</v>
+        <v>79589</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1212125929452146</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09497381695069466</v>
+        <v>0.09665234685243097</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.150153770922863</v>
+        <v>0.1546619686470528</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>97</v>
@@ -2288,19 +2288,19 @@
         <v>101406</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>81611</v>
+        <v>82754</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>121624</v>
+        <v>123983</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09809532085824908</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07894712449094916</v>
+        <v>0.08005277942957348</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1176536103495695</v>
+        <v>0.1199351725419888</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>120209</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>101149</v>
+        <v>100680</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>140721</v>
+        <v>140347</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2315506558430792</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1948376218590847</v>
+        <v>0.1939325736980446</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2710628557605499</v>
+        <v>0.2703412999198986</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>180</v>
@@ -2338,19 +2338,19 @@
         <v>181976</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>159715</v>
+        <v>161660</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>203549</v>
+        <v>204537</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3536268181577604</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3103683815972267</v>
+        <v>0.3141483708809224</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3955489963583203</v>
+        <v>0.3974682812854483</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>289</v>
@@ -2359,19 +2359,19 @@
         <v>302185</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>275041</v>
+        <v>272813</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>333659</v>
+        <v>331722</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2923202030176963</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2660629102430304</v>
+        <v>0.2639070075475042</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3227671371198632</v>
+        <v>0.3208931330306156</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>98736</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>83232</v>
+        <v>80333</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>116338</v>
+        <v>115303</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2553232931775403</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2152306669357965</v>
+        <v>0.2077356633559303</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.300839968253058</v>
+        <v>0.298165102997272</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>42</v>
@@ -2484,19 +2484,19 @@
         <v>44459</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>33067</v>
+        <v>33364</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>58529</v>
+        <v>59304</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1106208002294546</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08227672412512875</v>
+        <v>0.08301556189062649</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1456308395197904</v>
+        <v>0.1475585673787528</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>141</v>
@@ -2505,19 +2505,19 @@
         <v>143195</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>121970</v>
+        <v>123631</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>165864</v>
+        <v>165668</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.181578369111402</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1546639477804089</v>
+        <v>0.156769976955416</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2103241334110677</v>
+        <v>0.2100756753948282</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>75245</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>59086</v>
+        <v>60902</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>90737</v>
+        <v>92452</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1945762979631591</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1527922043944331</v>
+        <v>0.1574883620847799</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2346378644473497</v>
+        <v>0.2390735172325618</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>46</v>
@@ -2555,19 +2555,19 @@
         <v>47577</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>35641</v>
+        <v>35752</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>61734</v>
+        <v>61386</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1183808769805563</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08868093797545365</v>
+        <v>0.08895739496660711</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.153605936783438</v>
+        <v>0.1527381850576115</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>123</v>
@@ -2576,19 +2576,19 @@
         <v>122822</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>103598</v>
+        <v>104430</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>143771</v>
+        <v>145282</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1557447241590686</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1313672786702452</v>
+        <v>0.1324230888494182</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1823097300488963</v>
+        <v>0.1842251728560916</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>97454</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>81090</v>
+        <v>82393</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>115299</v>
+        <v>115303</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2520075972379525</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2096924569774013</v>
+        <v>0.213061195581495</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2981536580559839</v>
+        <v>0.2981637518198586</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>90</v>
@@ -2626,19 +2626,19 @@
         <v>92198</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>76925</v>
+        <v>76254</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>109176</v>
+        <v>109389</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2294049900213592</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1914028079970994</v>
+        <v>0.1897330408742308</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.271649241969547</v>
+        <v>0.2721800307694469</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>189</v>
@@ -2647,19 +2647,19 @@
         <v>189652</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>167527</v>
+        <v>168379</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>213294</v>
+        <v>214307</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2404886004402786</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2124332793503974</v>
+        <v>0.2135134243157293</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2704673900011086</v>
+        <v>0.271752069698049</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>32320</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>22638</v>
+        <v>22736</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>44312</v>
+        <v>44186</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0835779131833172</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05853925804144451</v>
+        <v>0.05879456605287092</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1145865467593379</v>
+        <v>0.1142608290522838</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>54</v>
@@ -2697,19 +2697,19 @@
         <v>54063</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>41990</v>
+        <v>42647</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>68630</v>
+        <v>69745</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1345192279316103</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1044787305498149</v>
+        <v>0.1061129498624514</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1707634385074884</v>
+        <v>0.1735381553984856</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>86</v>
@@ -2718,19 +2718,19 @@
         <v>86384</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>69268</v>
+        <v>71240</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>104297</v>
+        <v>106677</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1095392032164467</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.08783533726354738</v>
+        <v>0.09033542240775404</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1322534414095208</v>
+        <v>0.1352724827961568</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>82955</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>67641</v>
+        <v>67922</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>99733</v>
+        <v>98862</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.214514898438031</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1749141668588149</v>
+        <v>0.1756404917410599</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2579017541300582</v>
+        <v>0.2556488571716014</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>162</v>
@@ -2768,19 +2768,19 @@
         <v>163603</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>144872</v>
+        <v>144506</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>183382</v>
+        <v>180748</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4070741048370196</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3604661312138049</v>
+        <v>0.3595570711206967</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4562859335918227</v>
+        <v>0.4497335319982803</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>247</v>
@@ -2789,19 +2789,19 @@
         <v>246559</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>221149</v>
+        <v>220485</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>272687</v>
+        <v>270893</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3126491030728041</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.280428171734791</v>
+        <v>0.2795871464856103</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3457810841249243</v>
+        <v>0.3435065600136815</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>94789</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>78738</v>
+        <v>78552</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>112274</v>
+        <v>110795</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3239727796097398</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2691137137745377</v>
+        <v>0.2684763337240664</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3837329073308499</v>
+        <v>0.3786803055440932</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>57</v>
@@ -2914,19 +2914,19 @@
         <v>51470</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>38994</v>
+        <v>39771</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>64869</v>
+        <v>64651</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1500882689191677</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1137078072004983</v>
+        <v>0.1159720112541272</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1891598971533545</v>
+        <v>0.1885226457180443</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>153</v>
@@ -2935,19 +2935,19 @@
         <v>146259</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>126130</v>
+        <v>124671</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>168606</v>
+        <v>167631</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2301422279645908</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1984687313126244</v>
+        <v>0.1961724734922111</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2653057829627698</v>
+        <v>0.2637707000285733</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>56407</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>43467</v>
+        <v>43069</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>70152</v>
+        <v>71743</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1927883308937854</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1485642133198635</v>
+        <v>0.1472020957069019</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2397686326105186</v>
+        <v>0.2452060055218552</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>32</v>
@@ -2985,19 +2985,19 @@
         <v>29452</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>20818</v>
+        <v>20611</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>41327</v>
+        <v>40420</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.08588306682016952</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0607041340222271</v>
+        <v>0.06010054101271209</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1205102182074076</v>
+        <v>0.1178663230299926</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>92</v>
@@ -3006,19 +3006,19 @@
         <v>85859</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>70857</v>
+        <v>69779</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>104649</v>
+        <v>102582</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1351007320273869</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1114945047420469</v>
+        <v>0.1097983908421871</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1646681624227075</v>
+        <v>0.161414585750223</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>61105</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>48725</v>
+        <v>47633</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>75222</v>
+        <v>74682</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2088480125132529</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1665338033761431</v>
+        <v>0.1628023919434186</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.257094660371592</v>
+        <v>0.2552508140049976</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>52</v>
@@ -3056,19 +3056,19 @@
         <v>48736</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>36405</v>
+        <v>36327</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>61854</v>
+        <v>60943</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1421135745116151</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1061582161410696</v>
+        <v>0.1059312230685676</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1803672650806495</v>
+        <v>0.1777099476990025</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>113</v>
@@ -3077,19 +3077,19 @@
         <v>109841</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>94990</v>
+        <v>92614</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>130975</v>
+        <v>129166</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1728371619403377</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1494683551663807</v>
+        <v>0.145730679669749</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2060914275627231</v>
+        <v>0.203244981505372</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>7240</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3626</v>
+        <v>3477</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>14932</v>
+        <v>13805</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02474634142958249</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01239144603175393</v>
+        <v>0.01188309322589811</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.0510359053011117</v>
+        <v>0.04718180872769726</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>33</v>
@@ -3127,19 +3127,19 @@
         <v>31285</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>21885</v>
+        <v>21915</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>42190</v>
+        <v>41743</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.09122801297413716</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.06381612470021908</v>
+        <v>0.06390310380590015</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1230279265879172</v>
+        <v>0.12172236981453</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>41</v>
@@ -3148,19 +3148,19 @@
         <v>38526</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>27553</v>
+        <v>28772</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>50866</v>
+        <v>52413</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.0606207956322212</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.04335550476844828</v>
+        <v>0.04527293174540244</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.08003806385025292</v>
+        <v>0.08247349132935741</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>73042</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>58214</v>
+        <v>59735</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>88623</v>
+        <v>89578</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2496445355536394</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1989666704352415</v>
+        <v>0.2041635643269847</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3029002037749851</v>
+        <v>0.3061642552637384</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>197</v>
@@ -3198,19 +3198,19 @@
         <v>181991</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>162815</v>
+        <v>164932</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>198670</v>
+        <v>198964</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.5306870767749104</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4747701494963243</v>
+        <v>0.4809438632791528</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.5793238341533051</v>
+        <v>0.5801828285782954</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>275</v>
@@ -3219,19 +3219,19 @@
         <v>255032</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>232513</v>
+        <v>232002</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>279257</v>
+        <v>277921</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4012990824354634</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3658644339444876</v>
+        <v>0.365059989554696</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4394172417278712</v>
+        <v>0.4373155205317483</v>
       </c>
     </row>
     <row r="39">
@@ -3323,19 +3323,19 @@
         <v>85977</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>72256</v>
+        <v>71937</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>100095</v>
+        <v>99650</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.4113998395648066</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3457459568982635</v>
+        <v>0.3442156292255459</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.4789551102353993</v>
+        <v>0.476821912677775</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>44</v>
@@ -3344,19 +3344,19 @@
         <v>50091</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>37367</v>
+        <v>37515</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>64606</v>
+        <v>64211</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1505704542880644</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1123222566908182</v>
+        <v>0.1127685079175587</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1942011105425157</v>
+        <v>0.1930144798838418</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>134</v>
@@ -3365,19 +3365,19 @@
         <v>136069</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>115506</v>
+        <v>116834</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>156943</v>
+        <v>156688</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.251204737562099</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2132429247844917</v>
+        <v>0.2156952826362401</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.289742111507948</v>
+        <v>0.2892712619766306</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>20799</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>14107</v>
+        <v>14074</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>30329</v>
+        <v>30516</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.09952145126020803</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.06750387516604855</v>
+        <v>0.06734559370206986</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1451230998368459</v>
+        <v>0.1460192564653702</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>16</v>
@@ -3415,19 +3415,19 @@
         <v>17975</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>10419</v>
+        <v>11003</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>28247</v>
+        <v>29562</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.05403200144160019</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.03131957508651383</v>
+        <v>0.03307546979182577</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.08490672721748718</v>
+        <v>0.0888621901299777</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>39</v>
@@ -3436,19 +3436,19 @@
         <v>38774</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>27368</v>
+        <v>28326</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>51003</v>
+        <v>51481</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.07158293104321957</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.05052549696770704</v>
+        <v>0.052294593074178</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.0941589518297052</v>
+        <v>0.09504209944039575</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>33386</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>24337</v>
+        <v>23265</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>44004</v>
+        <v>44688</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1597539105779538</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1164506312941417</v>
+        <v>0.1113236068969337</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2105581645204398</v>
+        <v>0.2138331874205385</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>19</v>
@@ -3486,19 +3486,19 @@
         <v>23083</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>14813</v>
+        <v>14593</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>34703</v>
+        <v>34757</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.0693869662452743</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.04452579312116851</v>
+        <v>0.04386428506602671</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1043134780826252</v>
+        <v>0.1044778773569771</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>55</v>
@@ -3507,19 +3507,19 @@
         <v>56470</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>43394</v>
+        <v>42745</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>72032</v>
+        <v>72861</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1042527182959297</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.08011161634398548</v>
+        <v>0.07891350691246769</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1329830707654036</v>
+        <v>0.1345128993048163</v>
       </c>
     </row>
     <row r="43">
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>5749</v>
+        <v>5332</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.004622219283934565</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.02750955317475288</v>
+        <v>0.0255136429416376</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>15</v>
@@ -3557,19 +3557,19 @@
         <v>18132</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>10509</v>
+        <v>10619</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>29233</v>
+        <v>29976</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.05450287182858095</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.03159064815801119</v>
+        <v>0.0319185005521808</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.08787112653195726</v>
+        <v>0.09010560347359137</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>16</v>
@@ -3578,19 +3578,19 @@
         <v>19098</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>11408</v>
+        <v>11042</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>30986</v>
+        <v>29777</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.03525771004304942</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.02106097985916962</v>
+        <v>0.02038513235338167</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.05720503920683335</v>
+        <v>0.05497273398494651</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>67859</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>54732</v>
+        <v>54832</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>81390</v>
+        <v>82300</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.3247025793130971</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2618918598135845</v>
+        <v>0.2623698066027495</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3894508026259901</v>
+        <v>0.3938060372032344</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>195</v>
@@ -3628,19 +3628,19 @@
         <v>223395</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>205619</v>
+        <v>203974</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>240188</v>
+        <v>240626</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.6715077061964801</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.6180733890398468</v>
+        <v>0.6131305779335465</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.7219861197968263</v>
+        <v>0.7233031277218347</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>264</v>
@@ -3649,19 +3649,19 @@
         <v>291254</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>268075</v>
+        <v>267719</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>316258</v>
+        <v>314856</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.5377019030557023</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.4949097934612577</v>
+        <v>0.4942529850542308</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.5838646174573425</v>
+        <v>0.5812752422211717</v>
       </c>
     </row>
     <row r="45">
@@ -3753,19 +3753,19 @@
         <v>633868</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>590453</v>
+        <v>589200</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>677606</v>
+        <v>681030</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1935694033520363</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1803112922043864</v>
+        <v>0.1799288114494503</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2069261631916076</v>
+        <v>0.2079715936705604</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>367</v>
@@ -3774,19 +3774,19 @@
         <v>380991</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>344431</v>
+        <v>347665</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>420280</v>
+        <v>416636</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1129230992734299</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1020869407964205</v>
+        <v>0.1030452886736398</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1245679649896695</v>
+        <v>0.1234880437743741</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>985</v>
@@ -3795,19 +3795,19 @@
         <v>1014859</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>952283</v>
+        <v>959306</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1078038</v>
+        <v>1071588</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1526441705231706</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1432320704323415</v>
+        <v>0.1442884383901005</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1621468806622661</v>
+        <v>0.1611767200100978</v>
       </c>
     </row>
     <row r="47">
@@ -3824,19 +3824,19 @@
         <v>619158</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>573161</v>
+        <v>572662</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>663879</v>
+        <v>664419</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1890771834888444</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1750308329565853</v>
+        <v>0.1748785370713576</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2027342058401747</v>
+        <v>0.2028989503509739</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>356</v>
@@ -3845,19 +3845,19 @@
         <v>370290</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>337516</v>
+        <v>335739</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>407288</v>
+        <v>408607</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1097513367659772</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1000372100669478</v>
+        <v>0.09951054848024379</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1207173062064855</v>
+        <v>0.1211083147584401</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>966</v>
@@ -3866,19 +3866,19 @@
         <v>989448</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>935067</v>
+        <v>932159</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1053235</v>
+        <v>1047173</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1488220374710437</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1406427194970815</v>
+        <v>0.1402052874009591</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1584162468330269</v>
+        <v>0.1575043801597314</v>
       </c>
     </row>
     <row r="48">
@@ -3895,19 +3895,19 @@
         <v>965408</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>915845</v>
+        <v>912722</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1021293</v>
+        <v>1022707</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2948145930381582</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2796790895839561</v>
+        <v>0.2787253096786352</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3118805371687904</v>
+        <v>0.3123122273535685</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>818</v>
@@ -3916,19 +3916,19 @@
         <v>839874</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>789348</v>
+        <v>790211</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>894559</v>
+        <v>892273</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2489325691303821</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2339571553449453</v>
+        <v>0.2342127625305676</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2651408374964708</v>
+        <v>0.2644632750611108</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1764</v>
@@ -3937,19 +3937,19 @@
         <v>1805282</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1729083</v>
+        <v>1727047</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1879887</v>
+        <v>1881630</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2715310398420305</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2600700076595179</v>
+        <v>0.2597636863663494</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2827523382957835</v>
+        <v>0.2830144604752385</v>
       </c>
     </row>
     <row r="49">
@@ -3966,19 +3966,19 @@
         <v>309857</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>280075</v>
+        <v>277615</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>348124</v>
+        <v>345105</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.09462339234876335</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.08552880801307182</v>
+        <v>0.08477745603294137</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1063095838508</v>
+        <v>0.105387467487216</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>420</v>
@@ -3987,19 +3987,19 @@
         <v>429458</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>394129</v>
+        <v>393725</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>472091</v>
+        <v>466916</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1272883265169381</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1168170060318462</v>
+        <v>0.1166972104668254</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1399244216867164</v>
+        <v>0.1383904413581692</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>725</v>
@@ -4008,19 +4008,19 @@
         <v>739315</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>689605</v>
+        <v>693283</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>790970</v>
+        <v>788893</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1111997259011245</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1037229849243006</v>
+        <v>0.104276117173302</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1189692150496414</v>
+        <v>0.1186568166145056</v>
       </c>
     </row>
     <row r="50">
@@ -4037,19 +4037,19 @@
         <v>746338</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>699602</v>
+        <v>700192</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>796674</v>
+        <v>794939</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.2279154277721978</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2136431275551177</v>
+        <v>0.2138232456554198</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2432869170459557</v>
+        <v>0.242756818288827</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>1330</v>
@@ -4058,19 +4058,19 @@
         <v>1353287</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>1291971</v>
+        <v>1296838</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>1408289</v>
+        <v>1410768</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.4011046683132727</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.3829310161383119</v>
+        <v>0.3843733696523309</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.4174066591574074</v>
+        <v>0.4181414447847883</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>2063</v>
@@ -4079,19 +4079,19 @@
         <v>2099626</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>2014459</v>
+        <v>2023267</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>2174579</v>
+        <v>2181633</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.3158030262626307</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.3029931091968517</v>
+        <v>0.30431794811209</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.3270767078079603</v>
+        <v>0.3281376392417455</v>
       </c>
     </row>
     <row r="51">
@@ -4426,19 +4426,19 @@
         <v>71441</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>56269</v>
+        <v>57606</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>89354</v>
+        <v>89267</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1573079702496664</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1238998044208923</v>
+        <v>0.1268454797467336</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1967507879561248</v>
+        <v>0.1965604639782675</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -4447,19 +4447,19 @@
         <v>33231</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23679</v>
+        <v>22936</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44466</v>
+        <v>44842</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07742469133249147</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05517030225536514</v>
+        <v>0.05343829373485789</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1036011224733174</v>
+        <v>0.1044785070890654</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>100</v>
@@ -4468,19 +4468,19 @@
         <v>104672</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>87127</v>
+        <v>86004</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>126917</v>
+        <v>125164</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.118494238411746</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0986331648129012</v>
+        <v>0.09736191172890779</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1436769969764597</v>
+        <v>0.1416928068233322</v>
       </c>
     </row>
     <row r="5">
@@ -4497,19 +4497,19 @@
         <v>85904</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>70604</v>
+        <v>70523</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>103168</v>
+        <v>103893</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1891551205074385</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1554663982959762</v>
+        <v>0.155288072360713</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2271689906576748</v>
+        <v>0.2287655068807377</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>63</v>
@@ -4518,19 +4518,19 @@
         <v>65895</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>51516</v>
+        <v>51964</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>82242</v>
+        <v>81475</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1535281846405762</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1200280921222633</v>
+        <v>0.1210705005487534</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1916158480529827</v>
+        <v>0.1898292490977828</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>147</v>
@@ -4539,19 +4539,19 @@
         <v>151799</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>131155</v>
+        <v>131145</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>176849</v>
+        <v>174392</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1718446851611764</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1484747746469213</v>
+        <v>0.1484633844229477</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.200203367043938</v>
+        <v>0.1974215332921214</v>
       </c>
     </row>
     <row r="6">
@@ -4568,19 +4568,19 @@
         <v>108663</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>91455</v>
+        <v>90583</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>126560</v>
+        <v>126857</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.239268850684522</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2013782119596958</v>
+        <v>0.1994578034909513</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2786773468887403</v>
+        <v>0.2793307150759838</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>98</v>
@@ -4589,19 +4589,19 @@
         <v>100336</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>84601</v>
+        <v>84961</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>120126</v>
+        <v>119343</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.233772434151472</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1971132967004394</v>
+        <v>0.1979510702495</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2798821268893923</v>
+        <v>0.2780569044819963</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>205</v>
@@ -4610,19 +4610,19 @@
         <v>208999</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>185072</v>
+        <v>183425</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>236478</v>
+        <v>235337</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2365982487728941</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2095120502028162</v>
+        <v>0.2076475028909074</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2677067669586143</v>
+        <v>0.2664150130097522</v>
       </c>
     </row>
     <row r="7">
@@ -4639,19 +4639,19 @@
         <v>37080</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26793</v>
+        <v>26098</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49197</v>
+        <v>49264</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08164797998881304</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05899669466873441</v>
+        <v>0.05746646439029988</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1083280781664609</v>
+        <v>0.1084769141244202</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>47</v>
@@ -4660,19 +4660,19 @@
         <v>47277</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35970</v>
+        <v>36272</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>59896</v>
+        <v>62173</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1101506305445571</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08380696691522171</v>
+        <v>0.08450954353592463</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1395530169594374</v>
+        <v>0.1448562402531657</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>85</v>
@@ -4681,19 +4681,19 @@
         <v>84357</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>68083</v>
+        <v>67790</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>103004</v>
+        <v>102716</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09549686363926553</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0770735433372174</v>
+        <v>0.07674176088834922</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1166059982665692</v>
+        <v>0.1162805164055373</v>
       </c>
     </row>
     <row r="8">
@@ -4710,19 +4710,19 @@
         <v>151058</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>133296</v>
+        <v>133404</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>171583</v>
+        <v>175029</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3326200785695601</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2935101934924722</v>
+        <v>0.2937466561419468</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3778137932370122</v>
+        <v>0.3854023316071595</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>179</v>
@@ -4731,19 +4731,19 @@
         <v>182464</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>162138</v>
+        <v>161841</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>201970</v>
+        <v>202920</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4251240593309032</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.377765193922017</v>
+        <v>0.3770740388751906</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4705700921908496</v>
+        <v>0.4727850613477261</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>329</v>
@@ -4752,19 +4752,19 @@
         <v>333522</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>304058</v>
+        <v>304206</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>360333</v>
+        <v>360681</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.377565964014918</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3442110287003213</v>
+        <v>0.344378902295752</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4079174253319274</v>
+        <v>0.4083114581078902</v>
       </c>
     </row>
     <row r="9">
@@ -4856,19 +4856,19 @@
         <v>112881</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>94720</v>
+        <v>95102</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>134447</v>
+        <v>135100</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1647988307714442</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1382850325687455</v>
+        <v>0.1388428618256216</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1962829428103104</v>
+        <v>0.1972370521892172</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>69</v>
@@ -4877,19 +4877,19 @@
         <v>72838</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>57137</v>
+        <v>58215</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>88948</v>
+        <v>89963</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1193571352933372</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09362805969948768</v>
+        <v>0.09539458672919639</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1457548537240898</v>
+        <v>0.1474179988991799</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>181</v>
@@ -4898,19 +4898,19 @@
         <v>185720</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>161996</v>
+        <v>161340</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>209173</v>
+        <v>209832</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1433885218592721</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1250721095247099</v>
+        <v>0.1245655378743484</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.161496046192171</v>
+        <v>0.1620047755219062</v>
       </c>
     </row>
     <row r="11">
@@ -4927,19 +4927,19 @@
         <v>138180</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>116412</v>
+        <v>118247</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>160824</v>
+        <v>162153</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2017335654700075</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1699533368430443</v>
+        <v>0.1726319102256459</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2347918881415215</v>
+        <v>0.2367327809624612</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>97</v>
@@ -4948,19 +4948,19 @@
         <v>107185</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>87436</v>
+        <v>87211</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>128450</v>
+        <v>127343</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1756400810612236</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1432774874017702</v>
+        <v>0.1429094266002685</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.210485064266783</v>
+        <v>0.2086711822958142</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>231</v>
@@ -4969,19 +4969,19 @@
         <v>245365</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>219525</v>
+        <v>216082</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>275799</v>
+        <v>276259</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.189439359545051</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1694883853480184</v>
+        <v>0.166830605605767</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2129363325264541</v>
+        <v>0.2132915935710525</v>
       </c>
     </row>
     <row r="12">
@@ -4998,19 +4998,19 @@
         <v>162600</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>139974</v>
+        <v>141425</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>185727</v>
+        <v>187698</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2373840392115036</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2043518384886689</v>
+        <v>0.2064700534006084</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2711492643763767</v>
+        <v>0.2740266636948895</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>133</v>
@@ -5019,19 +5019,19 @@
         <v>140076</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>116943</v>
+        <v>121496</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>162125</v>
+        <v>161125</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2295375104974059</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1916304760904785</v>
+        <v>0.1990908001682841</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2656674649706097</v>
+        <v>0.2640286804315352</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>294</v>
@@ -5040,19 +5040,19 @@
         <v>302676</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>273872</v>
+        <v>275685</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>334322</v>
+        <v>339171</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2336870687994291</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2114481557921374</v>
+        <v>0.212847982275346</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2581199946601188</v>
+        <v>0.2618637231791694</v>
       </c>
     </row>
     <row r="13">
@@ -5069,19 +5069,19 @@
         <v>46854</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35084</v>
+        <v>34422</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>60494</v>
+        <v>62236</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06840315275987477</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05121996266328249</v>
+        <v>0.05025406028015979</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08831656935180349</v>
+        <v>0.09086033683398609</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>70</v>
@@ -5090,19 +5090,19 @@
         <v>74540</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>60277</v>
+        <v>59677</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>92219</v>
+        <v>92000</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1221454057609925</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0987733617516233</v>
+        <v>0.09779025388972305</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1511161318342039</v>
+        <v>0.1507562708375646</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>117</v>
@@ -5111,19 +5111,19 @@
         <v>121394</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>102562</v>
+        <v>101966</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>144048</v>
+        <v>145280</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09372435229443878</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07918516808787604</v>
+        <v>0.07872454990892286</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1112151515443786</v>
+        <v>0.1121663166716613</v>
       </c>
     </row>
     <row r="14">
@@ -5140,19 +5140,19 @@
         <v>224449</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>198076</v>
+        <v>201730</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>249765</v>
+        <v>249170</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3276804117871699</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2891766030532212</v>
+        <v>0.2945122614459763</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3646391796321585</v>
+        <v>0.3637712912241978</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>202</v>
@@ -5161,19 +5161,19 @@
         <v>215615</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>193457</v>
+        <v>191889</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>239514</v>
+        <v>241779</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3533198673870407</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3170108795261131</v>
+        <v>0.3144399027198707</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3924810241159135</v>
+        <v>0.3961934746782999</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>413</v>
@@ -5182,19 +5182,19 @@
         <v>440065</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>404124</v>
+        <v>407551</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>474400</v>
+        <v>477053</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.339760697501809</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3120120868359909</v>
+        <v>0.3146578796416906</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3662700376071326</v>
+        <v>0.3683180435871158</v>
       </c>
     </row>
     <row r="15">
@@ -5286,19 +5286,19 @@
         <v>137923</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>115425</v>
+        <v>116047</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>160242</v>
+        <v>159853</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2028047465150757</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1697238813169567</v>
+        <v>0.1706377167074239</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2356229979289256</v>
+        <v>0.2350505688336041</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>123</v>
@@ -5307,19 +5307,19 @@
         <v>131395</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>111324</v>
+        <v>110496</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>153585</v>
+        <v>153703</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1861389794118271</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1577053248298532</v>
+        <v>0.1565323642344019</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2175744484684321</v>
+        <v>0.2177416038003107</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>254</v>
@@ -5328,19 +5328,19 @@
         <v>269318</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>234778</v>
+        <v>238860</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>299180</v>
+        <v>298935</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1943166278185667</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.169395380419487</v>
+        <v>0.1723409887924916</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2158625202809725</v>
+        <v>0.215685508153515</v>
       </c>
     </row>
     <row r="17">
@@ -5357,19 +5357,19 @@
         <v>141449</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>121231</v>
+        <v>121092</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>164634</v>
+        <v>164798</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2079900002828853</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1782609288253373</v>
+        <v>0.1780554081079885</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2420812594939229</v>
+        <v>0.2423216563280848</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>97</v>
@@ -5378,19 +5378,19 @@
         <v>104246</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>84694</v>
+        <v>85573</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>124199</v>
+        <v>124620</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1476786800546125</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1199798093913998</v>
+        <v>0.1212256287977754</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1759445934551525</v>
+        <v>0.1765405415318517</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>227</v>
@@ -5399,19 +5399,19 @@
         <v>245696</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>216782</v>
+        <v>215823</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>276850</v>
+        <v>277965</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1772725636555034</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1564114038002584</v>
+        <v>0.1557194481674365</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1997510845261403</v>
+        <v>0.2005551967256301</v>
       </c>
     </row>
     <row r="18">
@@ -5428,19 +5428,19 @@
         <v>140179</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>119088</v>
+        <v>120798</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>160542</v>
+        <v>161941</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2061215495025053</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1751089521383678</v>
+        <v>0.177623694963423</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2360640968255406</v>
+        <v>0.2381205496384191</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>130</v>
@@ -5449,19 +5449,19 @@
         <v>134685</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>113956</v>
+        <v>113574</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>156266</v>
+        <v>155748</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1907989359498115</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1614340105437239</v>
+        <v>0.1608934894647912</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.221371585935407</v>
+        <v>0.2206384558738348</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>270</v>
@@ -5470,19 +5470,19 @@
         <v>274863</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>246076</v>
+        <v>246470</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>307476</v>
+        <v>304955</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1983175185346988</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1775468768932669</v>
+        <v>0.1778315624457291</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2218481441065506</v>
+        <v>0.2200290605184038</v>
       </c>
     </row>
     <row r="19">
@@ -5499,19 +5499,19 @@
         <v>33759</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>23248</v>
+        <v>23592</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>47886</v>
+        <v>47443</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0496397545185898</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03418366972068756</v>
+        <v>0.03469009509690428</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07041193983193694</v>
+        <v>0.06976109122802505</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>59</v>
@@ -5520,19 +5520,19 @@
         <v>63077</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>48909</v>
+        <v>48281</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>81531</v>
+        <v>81138</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0893577751178936</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06928618368000002</v>
+        <v>0.06839676862463101</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1154990221213848</v>
+        <v>0.1149425414035453</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>90</v>
@@ -5541,19 +5541,19 @@
         <v>96836</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>79291</v>
+        <v>78412</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>116870</v>
+        <v>118974</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06986872274721488</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05720968237994819</v>
+        <v>0.05657535580549195</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08432308865988764</v>
+        <v>0.08584124228152498</v>
       </c>
     </row>
     <row r="20">
@@ -5570,19 +5570,19 @@
         <v>226768</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>202062</v>
+        <v>203181</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>252206</v>
+        <v>252248</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3334439491809439</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2971165061751629</v>
+        <v>0.2987612076834136</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3708484223561986</v>
+        <v>0.3709102607387904</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>253</v>
@@ -5591,19 +5591,19 @@
         <v>272495</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>248441</v>
+        <v>248671</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>300183</v>
+        <v>298715</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3860256294658552</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3519500891759784</v>
+        <v>0.3522761269379205</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4252499152189278</v>
+        <v>0.4231696546101947</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>470</v>
@@ -5612,19 +5612,19 @@
         <v>499263</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>463918</v>
+        <v>465004</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>533785</v>
+        <v>536999</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3602245672440162</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3347232328383236</v>
+        <v>0.3355061823282691</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3851331961739162</v>
+        <v>0.387452006689504</v>
       </c>
     </row>
     <row r="21">
@@ -5716,19 +5716,19 @@
         <v>154513</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>131445</v>
+        <v>133677</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>178485</v>
+        <v>180150</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2518002340612895</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2142080400959868</v>
+        <v>0.2178454560481485</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2908663281343477</v>
+        <v>0.2935795208996677</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>95</v>
@@ -5737,19 +5737,19 @@
         <v>110598</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>89113</v>
+        <v>90029</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>130773</v>
+        <v>131804</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1798190262548333</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1448879749614753</v>
+        <v>0.1463769446056881</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2126216152212768</v>
+        <v>0.2142981070292337</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>231</v>
@@ -5758,19 +5758,19 @@
         <v>265111</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>236160</v>
+        <v>236208</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>293030</v>
+        <v>296699</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2157681614104344</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1922057708361548</v>
+        <v>0.1922449446015583</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2384908927180575</v>
+        <v>0.2414776080908471</v>
       </c>
     </row>
     <row r="23">
@@ -5787,19 +5787,19 @@
         <v>125829</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>106674</v>
+        <v>106448</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>147106</v>
+        <v>147867</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2050555654175591</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1738391552699955</v>
+        <v>0.1734708961387369</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2397297935873537</v>
+        <v>0.2409698612875067</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>81</v>
@@ -5808,19 +5808,19 @@
         <v>90762</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>74340</v>
+        <v>74961</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>109301</v>
+        <v>111616</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1475694483491137</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1208689782673563</v>
+        <v>0.1218780012471442</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1777111612396668</v>
+        <v>0.1814753965448248</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>193</v>
@@ -5829,19 +5829,19 @@
         <v>216591</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>190397</v>
+        <v>188781</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>246309</v>
+        <v>245683</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1762793888327588</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.154960088365566</v>
+        <v>0.1536447225291765</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2004661850520109</v>
+        <v>0.1999566603677825</v>
       </c>
     </row>
     <row r="24">
@@ -5858,19 +5858,19 @@
         <v>131420</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>108796</v>
+        <v>107779</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>152851</v>
+        <v>154420</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.214166236766817</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1772971866328182</v>
+        <v>0.1756413252228123</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2490912732161586</v>
+        <v>0.2516485294231833</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>99</v>
@@ -5879,19 +5879,19 @@
         <v>110821</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>90427</v>
+        <v>92524</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>131438</v>
+        <v>132404</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1801817984179342</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1470238452643056</v>
+        <v>0.1504342072386537</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2137037428479661</v>
+        <v>0.215273673057743</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>216</v>
@@ -5900,19 +5900,19 @@
         <v>242240</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>214640</v>
+        <v>214597</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>274026</v>
+        <v>272283</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1971544389809563</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1746914307293363</v>
+        <v>0.1746558545702381</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2230245090191974</v>
+        <v>0.2216054661421671</v>
       </c>
     </row>
     <row r="25">
@@ -5929,19 +5929,19 @@
         <v>33045</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>22636</v>
+        <v>22037</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>46718</v>
+        <v>45854</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05385156177595427</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03688807506556816</v>
+        <v>0.03591291494786184</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07613364122963112</v>
+        <v>0.07472539215100966</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>44</v>
@@ -5950,19 +5950,19 @@
         <v>49369</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>37204</v>
+        <v>36607</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>64238</v>
+        <v>65233</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08026836514259468</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06048957079929953</v>
+        <v>0.05951881639942194</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1044441030114928</v>
+        <v>0.1060614029846558</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>73</v>
@@ -5971,19 +5971,19 @@
         <v>82414</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>65701</v>
+        <v>65830</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>105118</v>
+        <v>103896</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0670751823168806</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05347233866809931</v>
+        <v>0.05357731015721699</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08555377948181257</v>
+        <v>0.08455843201157379</v>
       </c>
     </row>
     <row r="26">
@@ -6000,19 +6000,19 @@
         <v>168827</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>147796</v>
+        <v>146465</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>194906</v>
+        <v>194225</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2751264019783801</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2408531326065077</v>
+        <v>0.2386840510194229</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3176261023661126</v>
+        <v>0.3165166307682601</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>219</v>
@@ -6021,19 +6021,19 @@
         <v>253499</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>227478</v>
+        <v>227501</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>281383</v>
+        <v>279467</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4121613618355241</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3698534401416443</v>
+        <v>0.3698909950935012</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.457496669158547</v>
+        <v>0.4543813591174348</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>372</v>
@@ -6042,19 +6042,19 @@
         <v>422326</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>387828</v>
+        <v>385118</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>458689</v>
+        <v>456920</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3437228284589698</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3156451999187753</v>
+        <v>0.3134392840041338</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3733173858558982</v>
+        <v>0.3718775934429536</v>
       </c>
     </row>
     <row r="27">
@@ -6146,19 +6146,19 @@
         <v>132760</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>113123</v>
+        <v>111489</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>152641</v>
+        <v>151241</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3091548617732155</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2634276530885835</v>
+        <v>0.2596223552685646</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3554517425915558</v>
+        <v>0.3521910671200741</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>68</v>
@@ -6167,19 +6167,19 @@
         <v>76585</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>61216</v>
+        <v>59917</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>94504</v>
+        <v>95476</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1714232280151593</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1370225909971008</v>
+        <v>0.1341151267332239</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2115325221806217</v>
+        <v>0.2137066370613027</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>194</v>
@@ -6188,19 +6188,19 @@
         <v>209345</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>183756</v>
+        <v>183484</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>237454</v>
+        <v>235129</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2389268528073964</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2097216012845028</v>
+        <v>0.2094115108785372</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2710074548489558</v>
+        <v>0.2683544609742999</v>
       </c>
     </row>
     <row r="29">
@@ -6217,19 +6217,19 @@
         <v>86050</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>70876</v>
+        <v>69482</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>105780</v>
+        <v>103934</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2003835221420043</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1650471353391801</v>
+        <v>0.1618017149196454</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2463278199940948</v>
+        <v>0.2420291001844112</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>66</v>
@@ -6238,19 +6238,19 @@
         <v>71263</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>57101</v>
+        <v>55641</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>87828</v>
+        <v>89597</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1595095958133542</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1278102475128456</v>
+        <v>0.1245438974680808</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1965888380833409</v>
+        <v>0.2005487583074769</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>145</v>
@@ -6259,19 +6259,19 @@
         <v>157313</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>132481</v>
+        <v>136593</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>179932</v>
+        <v>181869</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1795423080624627</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1512011784848813</v>
+        <v>0.1558943371029415</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2053573637252467</v>
+        <v>0.2075675457960266</v>
       </c>
     </row>
     <row r="30">
@@ -6288,19 +6288,19 @@
         <v>80278</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>62979</v>
+        <v>64245</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>98020</v>
+        <v>98701</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1869411804529625</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1466578529263259</v>
+        <v>0.1496061241654161</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2282562363457064</v>
+        <v>0.2298429311035989</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>70</v>
@@ -6309,19 +6309,19 @@
         <v>76086</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>60636</v>
+        <v>60671</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>94352</v>
+        <v>93810</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1703054266615468</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1357231763464019</v>
+        <v>0.1358022711740655</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2111902456559845</v>
+        <v>0.2099778491490148</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>142</v>
@@ -6330,19 +6330,19 @@
         <v>156364</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>134206</v>
+        <v>132992</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>180822</v>
+        <v>182227</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1784587727842278</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1531697390818353</v>
+        <v>0.1517848661350015</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2063727943296019</v>
+        <v>0.2079771046799181</v>
       </c>
     </row>
     <row r="31">
@@ -6359,19 +6359,19 @@
         <v>19165</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>11221</v>
+        <v>11051</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>30888</v>
+        <v>31168</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04462844481265901</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0261299628054259</v>
+        <v>0.02573340496895885</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.07192891632903677</v>
+        <v>0.07257953285418285</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>31</v>
@@ -6380,19 +6380,19 @@
         <v>33837</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>23963</v>
+        <v>23828</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>47461</v>
+        <v>45305</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07573783110207891</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05363622179998014</v>
+        <v>0.05333594013055408</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1062345977264391</v>
+        <v>0.1014082848106521</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>47</v>
@@ -6401,19 +6401,19 @@
         <v>53001</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>39628</v>
+        <v>40500</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>70421</v>
+        <v>70840</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.06049081571208732</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04522717811287201</v>
+        <v>0.04622337190205408</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.08037214301129034</v>
+        <v>0.08084958281255968</v>
       </c>
     </row>
     <row r="32">
@@ -6430,19 +6430,19 @@
         <v>111176</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>91733</v>
+        <v>92585</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>132026</v>
+        <v>130221</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2588919908191588</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2136173057353781</v>
+        <v>0.2156003248040552</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3074447915152007</v>
+        <v>0.3032431904068861</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>170</v>
@@ -6451,19 +6451,19 @@
         <v>188991</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>167459</v>
+        <v>167549</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>209880</v>
+        <v>212069</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4230239184078607</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3748297487601735</v>
+        <v>0.3750305745567351</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4697821091798677</v>
+        <v>0.474682090107758</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>270</v>
@@ -6472,19 +6472,19 @@
         <v>300166</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>270557</v>
+        <v>273235</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>330517</v>
+        <v>330440</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3425812506338258</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3087877536001975</v>
+        <v>0.3118448717108622</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.377220294953339</v>
+        <v>0.3771324319980931</v>
       </c>
     </row>
     <row r="33">
@@ -6576,19 +6576,19 @@
         <v>118268</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>100891</v>
+        <v>100057</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>136820</v>
+        <v>136152</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3830085806165953</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3267329516851042</v>
+        <v>0.3240342662346539</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.443090828874403</v>
+        <v>0.4409276133139405</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>54</v>
@@ -6597,19 +6597,19 @@
         <v>57921</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>44586</v>
+        <v>43052</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>72349</v>
+        <v>71058</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1644592714452736</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1265955794320466</v>
+        <v>0.1222397387290254</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2054267761933585</v>
+        <v>0.2017592843583268</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>163</v>
@@ -6618,19 +6618,19 @@
         <v>176189</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>153699</v>
+        <v>153249</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>202813</v>
+        <v>201995</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2665581155571981</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2325325437352713</v>
+        <v>0.2318515525725509</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3068380717737081</v>
+        <v>0.3055996740965088</v>
       </c>
     </row>
     <row r="35">
@@ -6647,19 +6647,19 @@
         <v>53318</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>41075</v>
+        <v>40823</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>68491</v>
+        <v>68309</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1726701451829848</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1330220467588938</v>
+        <v>0.1322055209279037</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2218079257278257</v>
+        <v>0.2212175482754147</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>47</v>
@@ -6668,19 +6668,19 @@
         <v>47505</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>36168</v>
+        <v>35715</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>61367</v>
+        <v>61555</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1348829842335745</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1026955475157754</v>
+        <v>0.1014072495201871</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1742443204879105</v>
+        <v>0.174777490178134</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>97</v>
@@ -6689,19 +6689,19 @@
         <v>100823</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>81829</v>
+        <v>81986</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>119288</v>
+        <v>120623</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1525358675569518</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1237999133847398</v>
+        <v>0.1240369103629964</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1804712508649582</v>
+        <v>0.1824924187787472</v>
       </c>
     </row>
     <row r="36">
@@ -6718,19 +6718,19 @@
         <v>42621</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>29932</v>
+        <v>31793</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>57264</v>
+        <v>58213</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1380266107203399</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.09693515968380789</v>
+        <v>0.1029619813843356</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1854502510441431</v>
+        <v>0.188521847299032</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>58</v>
@@ -6739,19 +6739,19 @@
         <v>58081</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>44887</v>
+        <v>45863</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>71902</v>
+        <v>73783</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1649145602038868</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1274511614997784</v>
+        <v>0.1302230863784503</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2041553877857357</v>
+        <v>0.2094959729914008</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>94</v>
@@ -6760,19 +6760,19 @@
         <v>100702</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>82642</v>
+        <v>83116</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>121359</v>
+        <v>124953</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1523534197764972</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1250297249077054</v>
+        <v>0.1257470279067966</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1836047059708781</v>
+        <v>0.1890419641449782</v>
       </c>
     </row>
     <row r="37">
@@ -6789,19 +6789,19 @@
         <v>5918</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1975</v>
+        <v>1981</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>11906</v>
+        <v>11796</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01916625378023439</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.006394849517365759</v>
+        <v>0.006416647214420686</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.03855597532074526</v>
+        <v>0.03820044654874272</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>35</v>
@@ -6810,19 +6810,19 @@
         <v>36370</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>26139</v>
+        <v>25465</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>50248</v>
+        <v>50000</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1032684984382786</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0742183348232536</v>
+        <v>0.07230377037381698</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1426727414283871</v>
+        <v>0.1419684384814865</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>41</v>
@@ -6831,19 +6831,19 @@
         <v>42289</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>30074</v>
+        <v>30456</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>55786</v>
+        <v>56659</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.06397877476281545</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.04549955686320776</v>
+        <v>0.04607669604351573</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.08439977434406895</v>
+        <v>0.0857197553276328</v>
       </c>
     </row>
     <row r="38">
@@ -6860,19 +6860,19 @@
         <v>88661</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>72109</v>
+        <v>73011</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>107376</v>
+        <v>106745</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2871284096998456</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2335243250800803</v>
+        <v>0.2364441304798258</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3477374979062263</v>
+        <v>0.3456925675792261</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>149</v>
@@ -6881,19 +6881,19 @@
         <v>152314</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>133639</v>
+        <v>134141</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>170420</v>
+        <v>169520</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4324746856789866</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3794495697704564</v>
+        <v>0.3808754219572379</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4838861700232521</v>
+        <v>0.481330743066088</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>229</v>
@@ -6902,19 +6902,19 @@
         <v>240975</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>215692</v>
+        <v>218060</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>267277</v>
+        <v>268483</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3645738223465375</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3263224354643892</v>
+        <v>0.3299056842940028</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4043663300168944</v>
+        <v>0.406190748094339</v>
       </c>
     </row>
     <row r="39">
@@ -7006,19 +7006,19 @@
         <v>127848</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>111742</v>
+        <v>111668</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>144007</v>
+        <v>145044</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.5136825521655124</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.4489688516067616</v>
+        <v>0.4486723833233727</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.5786099171329029</v>
+        <v>0.5827752737457207</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>61</v>
@@ -7027,19 +7027,19 @@
         <v>66979</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>53536</v>
+        <v>51815</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>83716</v>
+        <v>83022</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1735996411071443</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1387559191610958</v>
+        <v>0.1342954711682134</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2169797896530253</v>
+        <v>0.2151803246898806</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>177</v>
@@ -7048,19 +7048,19 @@
         <v>194827</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>169666</v>
+        <v>170286</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>218889</v>
+        <v>220635</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3069544405371555</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2673114979722694</v>
+        <v>0.2682894060019172</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.3448634010153592</v>
+        <v>0.347614678537533</v>
       </c>
     </row>
     <row r="41">
@@ -7077,19 +7077,19 @@
         <v>31714</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>21805</v>
+        <v>20724</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>44126</v>
+        <v>44333</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1274230985383588</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.08761245640752351</v>
+        <v>0.08326816736110457</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1772962494372979</v>
+        <v>0.1781251542167885</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>32</v>
@@ -7098,19 +7098,19 @@
         <v>35155</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>24510</v>
+        <v>25163</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>47625</v>
+        <v>47197</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.09111563550813832</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.06352553687092322</v>
+        <v>0.06521854589259597</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1234361850674546</v>
+        <v>0.1223283749113354</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>60</v>
@@ -7119,19 +7119,19 @@
         <v>66869</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>50576</v>
+        <v>50895</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>84296</v>
+        <v>84330</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1053526768082718</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.07968375448512485</v>
+        <v>0.08018610516728333</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1328101299314397</v>
+        <v>0.1328628353871409</v>
       </c>
     </row>
     <row r="42">
@@ -7148,19 +7148,19 @@
         <v>21542</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>12338</v>
+        <v>12876</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>34468</v>
+        <v>33549</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.08655464044509241</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.04957182993031412</v>
+        <v>0.05173355740684734</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1384876563274277</v>
+        <v>0.1347958585673145</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>59</v>
@@ -7169,19 +7169,19 @@
         <v>66188</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>50905</v>
+        <v>51387</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>81870</v>
+        <v>81310</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1715495203898094</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1319393266779562</v>
+        <v>0.1331862742161421</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2121942424613386</v>
+        <v>0.2107426491307265</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>76</v>
@@ -7190,19 +7190,19 @@
         <v>87730</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>70792</v>
+        <v>69013</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>107407</v>
+        <v>107401</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1382209560925569</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1115339372205675</v>
+        <v>0.1087312766758366</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1692225572253679</v>
+        <v>0.1692128364916283</v>
       </c>
     </row>
     <row r="43">
@@ -7219,19 +7219,19 @@
         <v>5355</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>1187</v>
+        <v>2026</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>11667</v>
+        <v>10759</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.02151755350615821</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.004769399726374609</v>
+        <v>0.008138703618107538</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.04687797779823351</v>
+        <v>0.04322934399032118</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>23</v>
@@ -7240,19 +7240,19 @@
         <v>25109</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>16331</v>
+        <v>16167</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>36500</v>
+        <v>36971</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.06507923759044383</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.04232805906586596</v>
+        <v>0.04190236367662781</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.09460369527994379</v>
+        <v>0.09582270397576684</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>28</v>
@@ -7261,19 +7261,19 @@
         <v>30465</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>20843</v>
+        <v>20959</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>42042</v>
+        <v>44231</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.04799763938306904</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.03283805470801597</v>
+        <v>0.03302144148576161</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.0662374224087173</v>
+        <v>0.06968709232691062</v>
       </c>
     </row>
     <row r="44">
@@ -7290,19 +7290,19 @@
         <v>62426</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>48845</v>
+        <v>48177</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>77081</v>
+        <v>77995</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2508221553448781</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1962536716615562</v>
+        <v>0.1935704663091862</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3097059836183919</v>
+        <v>0.3133796024452503</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>173</v>
@@ -7311,19 +7311,19 @@
         <v>192394</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>171974</v>
+        <v>173527</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>211284</v>
+        <v>213921</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.4986559654044642</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.4457303065906687</v>
+        <v>0.4497552781134642</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.5476157308174845</v>
+        <v>0.5544514000931786</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>228</v>
@@ -7332,19 +7332,19 @@
         <v>254820</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>225804</v>
+        <v>230080</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>280176</v>
+        <v>281922</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.4014742871789467</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.3557588148057937</v>
+        <v>0.3624959104198964</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.4414223337324761</v>
+        <v>0.4441730824368156</v>
       </c>
     </row>
     <row r="45">
@@ -7436,19 +7436,19 @@
         <v>855634</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>800254</v>
+        <v>808704</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>909854</v>
+        <v>909309</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2501911198167888</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2339975651026746</v>
+        <v>0.2364685459052599</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2660452562730428</v>
+        <v>0.2658858015365512</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>503</v>
@@ -7457,19 +7457,19 @@
         <v>549547</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>507585</v>
+        <v>507188</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>595288</v>
+        <v>597941</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.155012435775971</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1431759605945417</v>
+        <v>0.1430640963252769</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1679146166397383</v>
+        <v>0.1686629144520629</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>1300</v>
@@ -7478,19 +7478,19 @@
         <v>1405181</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1332988</v>
+        <v>1336549</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1469184</v>
+        <v>1473598</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2017459465399589</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1913809760649591</v>
+        <v>0.1918922350314623</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2109349465312313</v>
+        <v>0.2115687318071574</v>
       </c>
     </row>
     <row r="47">
@@ -7507,19 +7507,19 @@
         <v>662445</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>615293</v>
+        <v>618419</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>710495</v>
+        <v>711175</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1937017938059829</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1799143110449164</v>
+        <v>0.1808281974339642</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2077518070363853</v>
+        <v>0.2079505886827235</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>483</v>
@@ -7528,19 +7528,19 @@
         <v>522010</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>480628</v>
+        <v>482675</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>566141</v>
+        <v>568768</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1472450325364557</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1355722602085737</v>
+        <v>0.1361496419231836</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1596929982791394</v>
+        <v>0.1604341789267935</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1100</v>
@@ -7549,19 +7549,19 @@
         <v>1184455</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1119555</v>
+        <v>1124375</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1255650</v>
+        <v>1251058</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1700556815250295</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.160737692185537</v>
+        <v>0.1614297434325431</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1802772355798137</v>
+        <v>0.179618020217283</v>
       </c>
     </row>
     <row r="48">
@@ -7578,19 +7578,19 @@
         <v>687302</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>638670</v>
+        <v>639122</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>733435</v>
+        <v>735943</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2009699741984774</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1867499219090528</v>
+        <v>0.1868819232913926</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.214459466161032</v>
+        <v>0.21519285069141</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>647</v>
@@ -7599,19 +7599,19 @@
         <v>686273</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>640106</v>
+        <v>637696</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>737173</v>
+        <v>731184</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1935789931817795</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.180556688827794</v>
+        <v>0.1798768505519613</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2079365756771421</v>
+        <v>0.2062473395211575</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1297</v>
@@ -7620,19 +7620,19 @@
         <v>1373574</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1310266</v>
+        <v>1298204</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1444050</v>
+        <v>1438015</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1972080251901665</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1881186950875137</v>
+        <v>0.1863869680110285</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2073265039784023</v>
+        <v>0.2064600084447972</v>
       </c>
     </row>
     <row r="49">
@@ -7649,19 +7649,19 @@
         <v>181176</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>156420</v>
+        <v>155366</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>210377</v>
+        <v>208207</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.0529767178687089</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.04573780334907768</v>
+        <v>0.04542963668706402</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.06151504238321822</v>
+        <v>0.06088069026879418</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>309</v>
@@ -7670,19 +7670,19 @@
         <v>329579</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>296049</v>
+        <v>295472</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>369929</v>
+        <v>369307</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.09296544308499767</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.08350743419395885</v>
+        <v>0.08334477159954316</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1043470152254813</v>
+        <v>0.1041715934027806</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>481</v>
@@ -7691,19 +7691,19 @@
         <v>510756</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>467997</v>
+        <v>466888</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>557805</v>
+        <v>555354</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.07333065259417582</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.06719171120183989</v>
+        <v>0.06703243060808411</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.08008570337502073</v>
+        <v>0.07973383571533418</v>
       </c>
     </row>
     <row r="50">
@@ -7720,19 +7720,19 @@
         <v>1033365</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>974973</v>
+        <v>981079</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>1084044</v>
+        <v>1092503</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.302160394310042</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2850861355002944</v>
+        <v>0.2868715196486285</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.3169789844705032</v>
+        <v>0.3194524057501177</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>1345</v>
@@ -7741,19 +7741,19 @@
         <v>1457772</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>1391560</v>
+        <v>1395187</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>1515850</v>
+        <v>1519270</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.4111980954207962</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.3925216874248051</v>
+        <v>0.3935445628284944</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.4275804726706681</v>
+        <v>0.4285451951057763</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>2311</v>
@@ -7762,19 +7762,19 @@
         <v>2491137</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>2413636</v>
+        <v>2412151</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>2570015</v>
+        <v>2571434</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.3576596941506693</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.346532674490007</v>
+        <v>0.3463194347464467</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.3689844715119557</v>
+        <v>0.3691882029427527</v>
       </c>
     </row>
     <row r="51">
@@ -8109,19 +8109,19 @@
         <v>65642</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>51667</v>
+        <v>51515</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>81965</v>
+        <v>81384</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1580384814612367</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1243939227542514</v>
+        <v>0.1240266592763928</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1973374097162153</v>
+        <v>0.19593836112262</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>45</v>
@@ -8130,19 +8130,19 @@
         <v>42519</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31549</v>
+        <v>31878</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>54506</v>
+        <v>54209</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1074387500236669</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07971774524644692</v>
+        <v>0.08054965057944682</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1377271692939694</v>
+        <v>0.1369758734528827</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>107</v>
@@ -8151,19 +8151,19 @@
         <v>108161</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>91737</v>
+        <v>89964</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>128872</v>
+        <v>128358</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.133349915014336</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1131007177253189</v>
+        <v>0.1109149918221856</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1588842128170633</v>
+        <v>0.1582505144500798</v>
       </c>
     </row>
     <row r="5">
@@ -8180,19 +8180,19 @@
         <v>112338</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>94001</v>
+        <v>93374</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>133892</v>
+        <v>130587</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2704631082972702</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2263168849688595</v>
+        <v>0.2248063419428072</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3223571457446482</v>
+        <v>0.3144005010652966</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>85</v>
@@ -8201,19 +8201,19 @@
         <v>82574</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>68412</v>
+        <v>67347</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>100329</v>
+        <v>98429</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2086503931602819</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1728641308147935</v>
+        <v>0.1701746448498208</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2535122312581859</v>
+        <v>0.2487129467284655</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>192</v>
@@ -8222,19 +8222,19 @@
         <v>194912</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>172177</v>
+        <v>172742</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>219536</v>
+        <v>220209</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2403035149246107</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2122735953030683</v>
+        <v>0.21297081721071</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2706620536548827</v>
+        <v>0.2714910555875918</v>
       </c>
     </row>
     <row r="6">
@@ -8251,19 +8251,19 @@
         <v>109787</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>91883</v>
+        <v>91576</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>127913</v>
+        <v>128086</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2643225670254483</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2212172706371747</v>
+        <v>0.2204763671399001</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3079623923361083</v>
+        <v>0.3083775349881908</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>112</v>
@@ -8272,19 +8272,19 @@
         <v>113797</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>96481</v>
+        <v>95319</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>131295</v>
+        <v>132366</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2875432158878868</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2437909069657679</v>
+        <v>0.2408542684118219</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3317584531281333</v>
+        <v>0.3344656099817135</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>213</v>
@@ -8293,19 +8293,19 @@
         <v>223584</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>198545</v>
+        <v>198964</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>246549</v>
+        <v>248008</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.275652361000497</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2447822506136446</v>
+        <v>0.2452985302985344</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3039654009249151</v>
+        <v>0.3057640339762414</v>
       </c>
     </row>
     <row r="7">
@@ -8322,19 +8322,19 @@
         <v>36437</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25992</v>
+        <v>26547</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49028</v>
+        <v>50900</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08772467983128505</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06257705935707497</v>
+        <v>0.0639152469371604</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1180390575616404</v>
+        <v>0.1225466940756267</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -8343,19 +8343,19 @@
         <v>30649</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21411</v>
+        <v>21573</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41665</v>
+        <v>41707</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07744535376984961</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05410084511911307</v>
+        <v>0.05451163252176811</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1052803926265317</v>
+        <v>0.105386596572481</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>67</v>
@@ -8364,19 +8364,19 @@
         <v>67086</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>52677</v>
+        <v>52158</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>83482</v>
+        <v>83075</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08270920213432881</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06494406738799312</v>
+        <v>0.064304776084191</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1029239202557369</v>
+        <v>0.1024213650660751</v>
       </c>
     </row>
     <row r="8">
@@ -8393,19 +8393,19 @@
         <v>91150</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>75099</v>
+        <v>74448</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>109126</v>
+        <v>110311</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2194511633847598</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1808085523999783</v>
+        <v>0.1792407711431059</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2627307362820764</v>
+        <v>0.2655828423018903</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>130</v>
@@ -8414,19 +8414,19 @@
         <v>126215</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>108098</v>
+        <v>108332</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>143242</v>
+        <v>145199</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3189222871583148</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2731437707565726</v>
+        <v>0.2737347597482198</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3619461810051908</v>
+        <v>0.3668902313853536</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>214</v>
@@ -8435,19 +8435,19 @@
         <v>217365</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>192952</v>
+        <v>193073</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>243821</v>
+        <v>242766</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2679850069262274</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2378870139894558</v>
+        <v>0.2380361637636801</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3006027856057028</v>
+        <v>0.2993017115779353</v>
       </c>
     </row>
     <row r="9">
@@ -8539,19 +8539,19 @@
         <v>77881</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>63322</v>
+        <v>62338</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>97166</v>
+        <v>96545</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.132655817935877</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1078566992089562</v>
+        <v>0.1061804982431474</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1655041032169983</v>
+        <v>0.1644462360912785</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>55</v>
@@ -8560,19 +8560,19 @@
         <v>55233</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42334</v>
+        <v>43319</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>69831</v>
+        <v>70615</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.098009529951784</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07512146043745062</v>
+        <v>0.07686881260527875</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1239131637802292</v>
+        <v>0.1253059618043755</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>127</v>
@@ -8581,19 +8581,19 @@
         <v>133114</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>111752</v>
+        <v>112359</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>157187</v>
+        <v>154876</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1156872177555792</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09712186927636746</v>
+        <v>0.09764901564654979</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1366087077139632</v>
+        <v>0.1346004595979655</v>
       </c>
     </row>
     <row r="11">
@@ -8610,19 +8610,19 @@
         <v>169747</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>146903</v>
+        <v>147211</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>190696</v>
+        <v>193607</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2891308558523751</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2502217045723678</v>
+        <v>0.2507461518971978</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3248143603942559</v>
+        <v>0.3297722149384452</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>150</v>
@@ -8631,19 +8631,19 @@
         <v>146847</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>128015</v>
+        <v>127534</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>168006</v>
+        <v>166687</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2605769487841767</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2271602942751988</v>
+        <v>0.2263068459019596</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2981245501540003</v>
+        <v>0.2957839308518925</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>313</v>
@@ -8652,19 +8652,19 @@
         <v>316593</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>286853</v>
+        <v>288494</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>349659</v>
+        <v>348257</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2751461013283669</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2492996897174548</v>
+        <v>0.250725771431469</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3038833292457103</v>
+        <v>0.302664936118625</v>
       </c>
     </row>
     <row r="12">
@@ -8681,19 +8681,19 @@
         <v>149907</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>128798</v>
+        <v>127378</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>170551</v>
+        <v>171684</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2553384686875773</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2193831775362756</v>
+        <v>0.2169643741109383</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.290501142509619</v>
+        <v>0.2924302919540863</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>156</v>
@@ -8702,19 +8702,19 @@
         <v>151870</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>130682</v>
+        <v>131825</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>171640</v>
+        <v>173563</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2694904317956327</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2318931804065265</v>
+        <v>0.2339215177491732</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3045730779866347</v>
+        <v>0.3079850123440427</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>301</v>
@@ -8723,19 +8723,19 @@
         <v>301777</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>271722</v>
+        <v>271704</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>329331</v>
+        <v>329931</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2622696297937012</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2361493962193662</v>
+        <v>0.2361338051166883</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2862162324723783</v>
+        <v>0.2867378643648715</v>
       </c>
     </row>
     <row r="13">
@@ -8752,19 +8752,19 @@
         <v>54142</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>42479</v>
+        <v>41891</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>71334</v>
+        <v>70563</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09222089758656754</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07235445192837042</v>
+        <v>0.07135332763665206</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1215030555569185</v>
+        <v>0.1201899680532088</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>61</v>
@@ -8773,19 +8773,19 @@
         <v>58763</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>45791</v>
+        <v>46059</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>75036</v>
+        <v>72781</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.104273943100943</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08125466006845657</v>
+        <v>0.08173126820716708</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1331497277924535</v>
+        <v>0.1291489632911683</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>114</v>
@@ -8794,19 +8794,19 @@
         <v>112905</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>95056</v>
+        <v>94535</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>135798</v>
+        <v>132926</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09812407862524822</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08261123039801201</v>
+        <v>0.08215846241485709</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1180201734456488</v>
+        <v>0.115523780097887</v>
       </c>
     </row>
     <row r="14">
@@ -8823,19 +8823,19 @@
         <v>135415</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>115313</v>
+        <v>115670</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>155552</v>
+        <v>156949</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2306539599376032</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.196413224730231</v>
+        <v>0.1970222954493059</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2649536477209555</v>
+        <v>0.2673327739842319</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>157</v>
@@ -8844,19 +8844,19 @@
         <v>150832</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>130764</v>
+        <v>132196</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>171079</v>
+        <v>172443</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2676491463674637</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2320387028250915</v>
+        <v>0.2345795167137379</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3035776907101381</v>
+        <v>0.3059969984350714</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>288</v>
@@ -8865,19 +8865,19 @@
         <v>286247</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>257965</v>
+        <v>258670</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>313901</v>
+        <v>316221</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2487729724971044</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2241928609057535</v>
+        <v>0.2248060625734307</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2728061004025012</v>
+        <v>0.2748223065626281</v>
       </c>
     </row>
     <row r="15">
@@ -8969,19 +8969,19 @@
         <v>103909</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>85247</v>
+        <v>85318</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>123136</v>
+        <v>123527</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1562355361161557</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.128175797679903</v>
+        <v>0.1282817580850711</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.185144651840225</v>
+        <v>0.1857331993140403</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>90</v>
@@ -8990,19 +8990,19 @@
         <v>92379</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>75295</v>
+        <v>75267</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>111868</v>
+        <v>111634</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1401987406407182</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1142717292086155</v>
+        <v>0.1142291285995196</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1697763849346376</v>
+        <v>0.1694218298985942</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>185</v>
@@ -9011,19 +9011,19 @@
         <v>196288</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>169590</v>
+        <v>171319</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>223309</v>
+        <v>222141</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1482544920518239</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1280894855207992</v>
+        <v>0.1293954437876946</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1686630634069139</v>
+        <v>0.1677812273414603</v>
       </c>
     </row>
     <row r="17">
@@ -9040,19 +9040,19 @@
         <v>161317</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>138665</v>
+        <v>140241</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>184105</v>
+        <v>186169</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2425522705067196</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2084942273958901</v>
+        <v>0.2108639016166773</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2768158089154131</v>
+        <v>0.2799194085360295</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>172</v>
@@ -9061,19 +9061,19 @@
         <v>169014</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>147662</v>
+        <v>148706</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>192036</v>
+        <v>194313</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2565045063987855</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2240993639760799</v>
+        <v>0.2256833427662119</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2914435614465697</v>
+        <v>0.2948992700823216</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>325</v>
@@ -9082,19 +9082,19 @@
         <v>330331</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>297500</v>
+        <v>299564</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>362034</v>
+        <v>360015</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.249495890235554</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2246988469656415</v>
+        <v>0.2262576172050837</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2734409100376138</v>
+        <v>0.2719157686917847</v>
       </c>
     </row>
     <row r="18">
@@ -9111,19 +9111,19 @@
         <v>167451</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>147504</v>
+        <v>146558</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>192599</v>
+        <v>189909</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2517756086942899</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.221783608034348</v>
+        <v>0.2203612885227542</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2895880461025916</v>
+        <v>0.2855423664483422</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>165</v>
@@ -9132,19 +9132,19 @@
         <v>162361</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>142094</v>
+        <v>141534</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>187172</v>
+        <v>184173</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2464073700502141</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.215648631191687</v>
+        <v>0.2147995465682535</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2840615023988884</v>
+        <v>0.2795107847423867</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>324</v>
@@ -9153,19 +9153,19 @@
         <v>329812</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>299503</v>
+        <v>298374</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>359701</v>
+        <v>364960</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2491039933312431</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2262117140886305</v>
+        <v>0.2253595687806494</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2716785803274263</v>
+        <v>0.2756506905100062</v>
       </c>
     </row>
     <row r="19">
@@ -9182,19 +9182,19 @@
         <v>67408</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>53257</v>
+        <v>53278</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>84493</v>
+        <v>85361</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1013535233802205</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08007639481494037</v>
+        <v>0.08010748247885997</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1270415002274303</v>
+        <v>0.1283469583362317</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>54</v>
@@ -9203,19 +9203,19 @@
         <v>52338</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>40943</v>
+        <v>39207</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>68959</v>
+        <v>68214</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07943055957684532</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06213687371859779</v>
+        <v>0.05950256513099909</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1046555673703353</v>
+        <v>0.1035255794082064</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>121</v>
@@ -9224,19 +9224,19 @@
         <v>119746</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>100705</v>
+        <v>101888</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>140621</v>
+        <v>141278</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09044310549757832</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0760619049811168</v>
+        <v>0.07695525762688002</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.106209701815727</v>
+        <v>0.1067057659366184</v>
       </c>
     </row>
     <row r="20">
@@ -9253,19 +9253,19 @@
         <v>164995</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>141771</v>
+        <v>140243</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>188252</v>
+        <v>184698</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2480830613026143</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.213163929649942</v>
+        <v>0.210866363879768</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2830510019429623</v>
+        <v>0.2777084108611884</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>182</v>
@@ -9274,19 +9274,19 @@
         <v>182821</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>159599</v>
+        <v>161089</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>205509</v>
+        <v>204084</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.277458823333437</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2422162962571286</v>
+        <v>0.2444776098274893</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3118912671385781</v>
+        <v>0.3097281375611673</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>342</v>
@@ -9295,19 +9295,19 @@
         <v>347816</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>315966</v>
+        <v>316061</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>379716</v>
+        <v>381805</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2627025188838007</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2386462843112</v>
+        <v>0.2387178650089926</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2867963723106213</v>
+        <v>0.2883741006509499</v>
       </c>
     </row>
     <row r="21">
@@ -9399,19 +9399,19 @@
         <v>102759</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>84487</v>
+        <v>84378</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>122595</v>
+        <v>123898</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1590585372957394</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1307743468169219</v>
+        <v>0.1306067223093292</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1897617856404008</v>
+        <v>0.1917784134893599</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>74</v>
@@ -9420,19 +9420,19 @@
         <v>79683</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>63564</v>
+        <v>64192</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>100600</v>
+        <v>97144</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1233569309887016</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09840204436038456</v>
+        <v>0.09937527170017731</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1557381010608537</v>
+        <v>0.1503868350611159</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>167</v>
@@ -9441,19 +9441,19 @@
         <v>182443</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>158711</v>
+        <v>158819</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>210656</v>
+        <v>209201</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1412089871521836</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.122840942206798</v>
+        <v>0.1229239876104225</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1630456717568511</v>
+        <v>0.161919266145203</v>
       </c>
     </row>
     <row r="23">
@@ -9470,19 +9470,19 @@
         <v>164874</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>142275</v>
+        <v>143123</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>188037</v>
+        <v>189149</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2552038907171325</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2202241567522293</v>
+        <v>0.2215366470736533</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2910568398168547</v>
+        <v>0.2927781047834416</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>146</v>
@@ -9491,19 +9491,19 @@
         <v>157503</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>136335</v>
+        <v>138698</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>181733</v>
+        <v>180904</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2438285341924134</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2110593525256652</v>
+        <v>0.2147174115534325</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.281338478475742</v>
+        <v>0.2800548886627661</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>295</v>
@@ -9512,19 +9512,19 @@
         <v>322377</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>288366</v>
+        <v>288789</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>355278</v>
+        <v>352245</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2495166116926934</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2231927145513395</v>
+        <v>0.2235200026561897</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2749817387769498</v>
+        <v>0.2726339907647472</v>
       </c>
     </row>
     <row r="24">
@@ -9541,19 +9541,19 @@
         <v>158862</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>136752</v>
+        <v>136913</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>183449</v>
+        <v>182514</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2458988687170367</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2116754128121703</v>
+        <v>0.2119234687677983</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2839553776306653</v>
+        <v>0.2825077464830069</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>140</v>
@@ -9562,19 +9562,19 @@
         <v>149235</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>129326</v>
+        <v>126863</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>173425</v>
+        <v>170755</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2310295772028973</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2002073950834271</v>
+        <v>0.196394374638039</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2684771933399352</v>
+        <v>0.2643435072035997</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>284</v>
@@ -9583,19 +9583,19 @@
         <v>308098</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>278687</v>
+        <v>278048</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>340992</v>
+        <v>339070</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2384647448236123</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2157006276521056</v>
+        <v>0.2152063752293433</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2639243333866405</v>
+        <v>0.2624366181714293</v>
       </c>
     </row>
     <row r="25">
@@ -9612,19 +9612,19 @@
         <v>48932</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>35354</v>
+        <v>37244</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>63985</v>
+        <v>66117</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07574001071718774</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05472344160392778</v>
+        <v>0.05764925392948114</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09903994315766447</v>
+        <v>0.10234048465563</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>68</v>
@@ -9633,19 +9633,19 @@
         <v>72775</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>57518</v>
+        <v>57933</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>89484</v>
+        <v>90097</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1126616970024245</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08904366867436542</v>
+        <v>0.0896853144527162</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1385289396634338</v>
+        <v>0.1394776535059667</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>111</v>
@@ -9654,19 +9654,19 @@
         <v>121706</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>99964</v>
+        <v>102066</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>143652</v>
+        <v>147128</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09419955802901427</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0773715412887965</v>
+        <v>0.07899819968164261</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1111849503257958</v>
+        <v>0.1138757860053672</v>
       </c>
     </row>
     <row r="26">
@@ -9683,19 +9683,19 @@
         <v>170620</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>146748</v>
+        <v>148638</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>194364</v>
+        <v>193946</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2640986925529037</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.227147230347588</v>
+        <v>0.2300720817727229</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3008505005243831</v>
+        <v>0.3002036261084012</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>171</v>
@@ -9704,19 +9704,19 @@
         <v>186761</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>162924</v>
+        <v>161441</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>209073</v>
+        <v>208863</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2891232606135633</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2522202147313679</v>
+        <v>0.2499245071397495</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3236629739562715</v>
+        <v>0.3233381925474898</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>324</v>
@@ -9725,19 +9725,19 @@
         <v>357382</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>322174</v>
+        <v>322295</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>392996</v>
+        <v>391377</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2766100983024964</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.249359669096331</v>
+        <v>0.2494532437806621</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3041752390919467</v>
+        <v>0.3029221894064602</v>
       </c>
     </row>
     <row r="27">
@@ -9829,19 +9829,19 @@
         <v>84797</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>68979</v>
+        <v>67480</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>104345</v>
+        <v>103472</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.178186119607366</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1449478954850962</v>
+        <v>0.1417972824084807</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2192642920384972</v>
+        <v>0.2174291227842557</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>64</v>
@@ -9850,19 +9850,19 @@
         <v>76026</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>59073</v>
+        <v>59031</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>93161</v>
+        <v>94434</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1537027778420293</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1194289336626754</v>
+        <v>0.1193443915763222</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1883443792733287</v>
+        <v>0.1909190531755179</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>139</v>
@@ -9871,19 +9871,19 @@
         <v>160823</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>135912</v>
+        <v>136320</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>184239</v>
+        <v>186080</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1657080375234489</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1400402311866905</v>
+        <v>0.140460422356454</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1898352945220808</v>
+        <v>0.1917326064610336</v>
       </c>
     </row>
     <row r="29">
@@ -9900,19 +9900,19 @@
         <v>146978</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>125552</v>
+        <v>126999</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>165635</v>
+        <v>170192</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3088490893843815</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2638272315010357</v>
+        <v>0.2668672328152047</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3480545073495947</v>
+        <v>0.3576294217170783</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>92</v>
@@ -9921,19 +9921,19 @@
         <v>104000</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>85028</v>
+        <v>86738</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>123257</v>
+        <v>122930</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2102575648416197</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1719023936508052</v>
+        <v>0.1753590474284251</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2491890038214703</v>
+        <v>0.248529023472697</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>222</v>
@@ -9942,19 +9942,19 @@
         <v>250978</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>224776</v>
+        <v>227475</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>281783</v>
+        <v>282870</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2586013271379358</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2316032173571155</v>
+        <v>0.2343845223375197</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2903420918907367</v>
+        <v>0.2914624315998477</v>
       </c>
     </row>
     <row r="30">
@@ -9971,19 +9971,19 @@
         <v>105865</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>87314</v>
+        <v>88498</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>126346</v>
+        <v>124683</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2224564635398993</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1834752594427043</v>
+        <v>0.1859643086234795</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2654941559815289</v>
+        <v>0.262000237366168</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>81</v>
@@ -9992,19 +9992,19 @@
         <v>93981</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>76527</v>
+        <v>76882</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>112178</v>
+        <v>114359</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.190002074882314</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1547149314375076</v>
+        <v>0.1554323067110096</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2267916012639514</v>
+        <v>0.2312005132023364</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>176</v>
@@ -10013,19 +10013,19 @@
         <v>199845</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>173345</v>
+        <v>175100</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>225606</v>
+        <v>228236</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2059158895637581</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1786100446019105</v>
+        <v>0.1804183950538924</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2324589663988056</v>
+        <v>0.2351692474053255</v>
       </c>
     </row>
     <row r="31">
@@ -10042,19 +10042,19 @@
         <v>27881</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>17357</v>
+        <v>18191</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>39102</v>
+        <v>40873</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05858634217810692</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03647369574058053</v>
+        <v>0.03822475059671356</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.08216706207313682</v>
+        <v>0.08588721316293235</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>38</v>
@@ -10063,19 +10063,19 @@
         <v>41830</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>30296</v>
+        <v>30730</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>54803</v>
+        <v>55653</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08456823746519171</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06125014386189005</v>
+        <v>0.0621272807012194</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1107965589638533</v>
+        <v>0.1125150789179607</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>62</v>
@@ -10084,19 +10084,19 @@
         <v>69711</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>54600</v>
+        <v>53056</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>88834</v>
+        <v>88446</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.07182817105895804</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05625813915755472</v>
+        <v>0.05466752766222333</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.09153210576130687</v>
+        <v>0.09113207985193901</v>
       </c>
     </row>
     <row r="32">
@@ -10113,19 +10113,19 @@
         <v>110369</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>92398</v>
+        <v>89921</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>130270</v>
+        <v>128276</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2319219852902462</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1941592437019172</v>
+        <v>0.1889533062124234</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2737407771134745</v>
+        <v>0.269550483893274</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>156</v>
@@ -10134,19 +10134,19 @@
         <v>178794</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>157322</v>
+        <v>157720</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>203287</v>
+        <v>202999</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3614693449688453</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3180598469914063</v>
+        <v>0.3188644334920505</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4109880851706822</v>
+        <v>0.4104048174422429</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>254</v>
@@ -10155,19 +10155,19 @@
         <v>289163</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>261425</v>
+        <v>259355</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>319952</v>
+        <v>317870</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2979465747158992</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2693655107068696</v>
+        <v>0.2672332948296341</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3296708084177348</v>
+        <v>0.3275258084213205</v>
       </c>
     </row>
     <row r="33">
@@ -10259,19 +10259,19 @@
         <v>78983</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>63924</v>
+        <v>64889</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>97053</v>
+        <v>95428</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2370039548322719</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1918189692457608</v>
+        <v>0.1947147506267918</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.291226858639163</v>
+        <v>0.2863509386110164</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>49</v>
@@ -10280,19 +10280,19 @@
         <v>51741</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>39930</v>
+        <v>39514</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>66855</v>
+        <v>67420</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1373347035182975</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1059859506569552</v>
+        <v>0.1048821969737414</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1774530722893323</v>
+        <v>0.1789519242153229</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>126</v>
@@ -10301,19 +10301,19 @@
         <v>130723</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>111474</v>
+        <v>111517</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>154419</v>
+        <v>153353</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1841164136820995</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1570049911358072</v>
+        <v>0.1570652669735617</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2174908800189536</v>
+        <v>0.2159894319040669</v>
       </c>
     </row>
     <row r="35">
@@ -10330,19 +10330,19 @@
         <v>91366</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>74485</v>
+        <v>75392</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>108131</v>
+        <v>109178</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2741636237846569</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.223506758151849</v>
+        <v>0.2262301737182338</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3244699010767901</v>
+        <v>0.3276109790972577</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>91</v>
@@ -10351,19 +10351,19 @@
         <v>99966</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>83986</v>
+        <v>83444</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>117860</v>
+        <v>118418</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.265336909780762</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2229210436948831</v>
+        <v>0.2214832424442108</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3128322292294933</v>
+        <v>0.3143137669332677</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>181</v>
@@ -10372,19 +10372,19 @@
         <v>191332</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>165918</v>
+        <v>168757</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>213980</v>
+        <v>218479</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2694799004301869</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2336857838965177</v>
+        <v>0.2376838901045857</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3013787860549849</v>
+        <v>0.3077147559390621</v>
       </c>
     </row>
     <row r="36">
@@ -10401,19 +10401,19 @@
         <v>54418</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>41646</v>
+        <v>42560</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>68512</v>
+        <v>69997</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1632914672112119</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1249689475301594</v>
+        <v>0.1277096133965284</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.205584211652396</v>
+        <v>0.2100411749172003</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>52</v>
@@ -10422,19 +10422,19 @@
         <v>55249</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>41664</v>
+        <v>42414</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>70371</v>
+        <v>69884</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1466471889977267</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1105888916703171</v>
+        <v>0.1125790145482561</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1867842237527378</v>
+        <v>0.1854922038951642</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>106</v>
@@ -10443,19 +10443,19 @@
         <v>109667</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>90033</v>
+        <v>91419</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>128540</v>
+        <v>130229</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1544595061266683</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1268068899226128</v>
+        <v>0.1287578937027812</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1810415944135275</v>
+        <v>0.1834197218621853</v>
       </c>
     </row>
     <row r="37">
@@ -10472,19 +10472,19 @@
         <v>13434</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>7844</v>
+        <v>6930</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>22529</v>
+        <v>21332</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.04031054507378255</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02353771662135969</v>
+        <v>0.02079460168891464</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.06760279454432951</v>
+        <v>0.06401211746007204</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>20</v>
@@ -10493,19 +10493,19 @@
         <v>21320</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>13309</v>
+        <v>13525</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>31875</v>
+        <v>33357</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.05658971510655719</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03532652167367354</v>
+        <v>0.03589865480028936</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.08460420235423405</v>
+        <v>0.08853792122956006</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>33</v>
@@ -10514,19 +10514,19 @@
         <v>34754</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>24496</v>
+        <v>23906</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>49011</v>
+        <v>49515</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.04894876863469645</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03450148827915139</v>
+        <v>0.03367020385357625</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.06902853190442876</v>
+        <v>0.06973940919574613</v>
       </c>
     </row>
     <row r="38">
@@ -10543,19 +10543,19 @@
         <v>95054</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>79342</v>
+        <v>76387</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>113361</v>
+        <v>112024</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2852304090980768</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2380819501552478</v>
+        <v>0.22921491441161</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3401628791261571</v>
+        <v>0.3361513921068976</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>141</v>
@@ -10564,19 +10564,19 @@
         <v>148474</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>130129</v>
+        <v>129289</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>167044</v>
+        <v>168120</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3940914825966567</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3453981118518141</v>
+        <v>0.3431697772495402</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4433807189721062</v>
+        <v>0.4462380363316693</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>231</v>
@@ -10585,19 +10585,19 @@
         <v>243528</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>218620</v>
+        <v>217834</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>270914</v>
+        <v>269524</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3429954111263488</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.307914239934759</v>
+        <v>0.3068064081524466</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3815670168620042</v>
+        <v>0.3796089201427806</v>
       </c>
     </row>
     <row r="39">
@@ -10689,19 +10689,19 @@
         <v>51521</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>40568</v>
+        <v>39679</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>63513</v>
+        <v>62865</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.201150889603383</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1583859778881698</v>
+        <v>0.1549182010816466</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2479716423229185</v>
+        <v>0.2454417480533518</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>32</v>
@@ -10710,19 +10710,19 @@
         <v>43049</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>30055</v>
+        <v>29814</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>57941</v>
+        <v>58733</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1079187493332422</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.07534507454979733</v>
+        <v>0.07474038998423192</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1452537403282483</v>
+        <v>0.147238614379018</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>94</v>
@@ -10731,19 +10731,19 @@
         <v>94570</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>77937</v>
+        <v>77176</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>114344</v>
+        <v>112650</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1443746334436966</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1189828149338192</v>
+        <v>0.1178207068404565</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1745630488438823</v>
+        <v>0.1719777449001744</v>
       </c>
     </row>
     <row r="41">
@@ -10760,19 +10760,19 @@
         <v>69327</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>56710</v>
+        <v>56083</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>83027</v>
+        <v>83504</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2706683029165033</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2214085172050926</v>
+        <v>0.2189626484567857</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3241574354570879</v>
+        <v>0.3260191463018968</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>51</v>
@@ -10781,19 +10781,19 @@
         <v>68000</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>52178</v>
+        <v>51906</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>86391</v>
+        <v>87786</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1704689274465041</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1308048923649355</v>
+        <v>0.1301224423641649</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2165740919736162</v>
+        <v>0.2200702543968649</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>134</v>
@@ -10802,19 +10802,19 @@
         <v>137326</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>117482</v>
+        <v>115942</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>160041</v>
+        <v>161544</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2096491587432438</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.179354181847562</v>
+        <v>0.1770030098564379</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2443261281393067</v>
+        <v>0.2466216174636495</v>
       </c>
     </row>
     <row r="42">
@@ -10831,19 +10831,19 @@
         <v>47117</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>37223</v>
+        <v>36616</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>58564</v>
+        <v>60570</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1839567346605381</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.145328109553034</v>
+        <v>0.1429586455321851</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2286486286638785</v>
+        <v>0.2364800196956247</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>34</v>
@@ -10852,19 +10852,19 @@
         <v>44368</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>31460</v>
+        <v>31605</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>59659</v>
+        <v>60461</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.111225184899155</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.07886820628933561</v>
+        <v>0.07923123087320802</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1495595435519382</v>
+        <v>0.1515708843012177</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>90</v>
@@ -10873,19 +10873,19 @@
         <v>91485</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>73491</v>
+        <v>75092</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>109339</v>
+        <v>112903</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1396648725604272</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1121949180211738</v>
+        <v>0.1146389657835465</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1669224525122972</v>
+        <v>0.1723638728779825</v>
       </c>
     </row>
     <row r="43">
@@ -10902,19 +10902,19 @@
         <v>7990</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>4026</v>
+        <v>3342</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>14446</v>
+        <v>13811</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.03119571090031391</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01572022142086202</v>
+        <v>0.01304974845708049</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.05640270954224742</v>
+        <v>0.05392097442986544</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>19</v>
@@ -10923,19 +10923,19 @@
         <v>26272</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>15933</v>
+        <v>16334</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>39170</v>
+        <v>40929</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.06586047869811033</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.03994347471262281</v>
+        <v>0.04094900816218992</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.09819533997951056</v>
+        <v>0.1026043987742274</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>29</v>
@@ -10944,19 +10944,19 @@
         <v>34262</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>23761</v>
+        <v>22836</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>49369</v>
+        <v>48406</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.05230576726608058</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.03627536552315514</v>
+        <v>0.03486322152502506</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.07536846544855609</v>
+        <v>0.07389971951228552</v>
       </c>
     </row>
     <row r="44">
@@ -10973,19 +10973,19 @@
         <v>80176</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>66312</v>
+        <v>66778</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>94537</v>
+        <v>93986</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.3130283619192618</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2588987825794741</v>
+        <v>0.2607175700847186</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3690981117687173</v>
+        <v>0.3669459373268464</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>164</v>
@@ -10994,19 +10994,19 @@
         <v>217211</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>196763</v>
+        <v>193214</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>240231</v>
+        <v>239268</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.5445266596229884</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.4932663718673413</v>
+        <v>0.484369056569239</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.6022366405416539</v>
+        <v>0.599822297895872</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>254</v>
@@ -11015,19 +11015,19 @@
         <v>297387</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>270854</v>
+        <v>271883</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>327258</v>
+        <v>325179</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.4540055679865518</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.4134994291361267</v>
+        <v>0.4150709349948858</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.4996088516974513</v>
+        <v>0.496435207285812</v>
       </c>
     </row>
     <row r="45">
@@ -11119,19 +11119,19 @@
         <v>565492</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>521608</v>
+        <v>519609</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>605750</v>
+        <v>607236</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1673623505378715</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1543744919218704</v>
+        <v>0.1537828639840245</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1792770574191164</v>
+        <v>0.1797167769174561</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>409</v>
@@ -11140,19 +11140,19 @@
         <v>440630</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>399951</v>
+        <v>404738</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>480984</v>
+        <v>489527</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1246672004308089</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1131578618719875</v>
+        <v>0.1145122518754956</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1360845413998778</v>
+        <v>0.1385017315413707</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>945</v>
@@ -11161,19 +11161,19 @@
         <v>1006122</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>946224</v>
+        <v>944889</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1065897</v>
+        <v>1069457</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1455343022359416</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1368701552403598</v>
+        <v>0.1366771065337171</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1541806446025965</v>
+        <v>0.154695694811953</v>
       </c>
     </row>
     <row r="47">
@@ -11190,19 +11190,19 @@
         <v>915946</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>866898</v>
+        <v>866382</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>975531</v>
+        <v>971641</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2710821912207028</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2565659770030058</v>
+        <v>0.2564133738492952</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2887170551496751</v>
+        <v>0.2875656948338445</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>787</v>
@@ -11211,19 +11211,19 @@
         <v>827903</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>779041</v>
+        <v>784371</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>882617</v>
+        <v>881573</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2342383295491349</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2204137069383425</v>
+        <v>0.2219216663325117</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2497186046642292</v>
+        <v>0.2494231923681462</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1662</v>
@@ -11232,19 +11232,19 @@
         <v>1743849</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1678074</v>
+        <v>1671923</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1828164</v>
+        <v>1813176</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2522456350736951</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2427313666231982</v>
+        <v>0.2418416784808377</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2644416479761337</v>
+        <v>0.2622737294697846</v>
       </c>
     </row>
     <row r="48">
@@ -11261,19 +11261,19 @@
         <v>793407</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>746650</v>
+        <v>740799</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>847482</v>
+        <v>839343</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2348158708690053</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2209776630399813</v>
+        <v>0.2192458518867763</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2508196524545369</v>
+        <v>0.2484109058780552</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>740</v>
@@ -11282,19 +11282,19 @@
         <v>770860</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>719986</v>
+        <v>722199</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>817872</v>
+        <v>817407</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2180992155840307</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2037054762369618</v>
+        <v>0.2043313550486873</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2314002049380399</v>
+        <v>0.2312685252326355</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1494</v>
@@ -11303,19 +11303,19 @@
         <v>1564268</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1491932</v>
+        <v>1490592</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1631586</v>
+        <v>1635041</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2262694210241838</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2158061778510566</v>
+        <v>0.2156122600056061</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2360068907301786</v>
+        <v>0.2365067469646903</v>
       </c>
     </row>
     <row r="49">
@@ -11332,19 +11332,19 @@
         <v>256223</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>228114</v>
+        <v>227587</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>286370</v>
+        <v>288426</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.0758315485935586</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.06751247863102425</v>
+        <v>0.06735648920303375</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.08475357806733765</v>
+        <v>0.08536214562957006</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>292</v>
@@ -11353,19 +11353,19 @@
         <v>303947</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>271090</v>
+        <v>271449</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>341732</v>
+        <v>338595</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.08599551365166662</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.07669926925993296</v>
+        <v>0.07680104913424279</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.09668623890801317</v>
+        <v>0.09579848711736041</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>537</v>
@@ -11374,19 +11374,19 @@
         <v>560170</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>514225</v>
+        <v>514653</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>601720</v>
+        <v>605999</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.08102791210724045</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.07438200341772469</v>
+        <v>0.07444386702491246</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.08703810879119644</v>
+        <v>0.08765698282545609</v>
       </c>
     </row>
     <row r="50">
@@ -11403,19 +11403,19 @@
         <v>847780</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>799942</v>
+        <v>797545</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>900036</v>
+        <v>896535</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.2509080387788618</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2367498938090156</v>
+        <v>0.2360402923395712</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.266373453375124</v>
+        <v>0.2653373232507545</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>1101</v>
@@ -11424,19 +11424,19 @@
         <v>1191108</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>1134184</v>
+        <v>1133479</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>1251793</v>
+        <v>1247463</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.3369997407843589</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.3208941943724503</v>
+        <v>0.3206946560197215</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.3541694435877625</v>
+        <v>0.352944225957451</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1907</v>
@@ -11445,19 +11445,19 @@
         <v>2038888</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1954703</v>
+        <v>1963501</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>2113379</v>
+        <v>2118684</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.2949227295589391</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2827453617130269</v>
+        <v>0.2840179851875618</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.3056977191490454</v>
+        <v>0.3064651038969134</v>
       </c>
     </row>
     <row r="51">
